--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523560.183229674</v>
+        <v>2522624.966273664</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2245876.731339868</v>
+        <v>2245876.731339869</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1858412.563906804</v>
+        <v>1858412.563906803</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7782457.062226087</v>
+        <v>7782457.062226086</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>41.86988800288442</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>218.2803621238147</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>150.2783710965524</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -794,7 +794,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881453</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -834,7 +834,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>41.1270618305426</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>167.7003943505558</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>333.6802843384502</v>
       </c>
       <c r="C5" t="n">
-        <v>248.4191486897527</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>57.87860001854913</v>
+        <v>39.19550843742088</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1183,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>113.5303495308764</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>162.5186436913051</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.3090259950964</v>
       </c>
       <c r="X10" t="n">
-        <v>91.41762985501146</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>305.0081923624005</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.7621405902163</v>
       </c>
       <c r="D11" t="n">
-        <v>152.9392077525544</v>
+        <v>290.1051116036165</v>
       </c>
       <c r="E11" t="n">
         <v>307.0760837427385</v>
@@ -1387,10 +1387,10 @@
         <v>317.4258234951127</v>
       </c>
       <c r="H11" t="n">
-        <v>228.0937860584905</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.70325073121162</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.54803245529739</v>
+        <v>70.54803245529736</v>
       </c>
       <c r="T11" t="n">
         <v>129.2425000346378</v>
@@ -1432,7 +1432,7 @@
         <v>247.2041353116344</v>
       </c>
       <c r="W11" t="n">
-        <v>275.807438789513</v>
+        <v>68.97318040672657</v>
       </c>
       <c r="X11" t="n">
         <v>294.0764731243913</v>
@@ -1469,7 +1469,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I12" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390608</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395926</v>
       </c>
       <c r="S12" t="n">
         <v>132.3520209748092</v>
@@ -1548,7 +1548,7 @@
         <v>61.9488304750188</v>
       </c>
       <c r="I13" t="n">
-        <v>38.61323220584101</v>
+        <v>38.61323220584099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.68547988923562</v>
+        <v>28.6854798892356</v>
       </c>
       <c r="S13" t="n">
-        <v>108.3393314002176</v>
+        <v>108.3393314002174</v>
       </c>
       <c r="T13" t="n">
         <v>141.643174945315</v>
@@ -1590,7 +1590,7 @@
         <v>171.8379458355016</v>
       </c>
       <c r="W13" t="n">
-        <v>189.0154921562511</v>
+        <v>189.0154921562518</v>
       </c>
       <c r="X13" t="n">
         <v>140.2579131029643</v>
@@ -1627,7 +1627,7 @@
         <v>228.0937860584905</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54803245529739</v>
+        <v>70.54803245529736</v>
       </c>
       <c r="T14" t="n">
         <v>129.2425000346378</v>
@@ -1666,13 +1666,13 @@
         <v>161.7037004922744</v>
       </c>
       <c r="V14" t="n">
-        <v>247.2041353116344</v>
+        <v>113.3202869670795</v>
       </c>
       <c r="W14" t="n">
         <v>275.807438789513</v>
       </c>
       <c r="X14" t="n">
-        <v>200.8958755110475</v>
+        <v>294.0764731243913</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I15" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390608</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395926</v>
       </c>
       <c r="S15" t="n">
         <v>132.3520209748092</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.87433261250587</v>
+        <v>91.87433261250564</v>
       </c>
       <c r="C16" t="n">
         <v>77.02146086278827</v>
       </c>
       <c r="D16" t="n">
-        <v>62.59517607462733</v>
+        <v>62.595176074628</v>
       </c>
       <c r="E16" t="n">
         <v>62.52161812750711</v>
@@ -1785,7 +1785,7 @@
         <v>61.9488304750188</v>
       </c>
       <c r="I16" t="n">
-        <v>38.61323220584101</v>
+        <v>38.61323220584099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.68547988923562</v>
+        <v>28.6854798892356</v>
       </c>
       <c r="S16" t="n">
         <v>108.3393314002176</v>
@@ -1852,19 +1852,19 @@
         <v>290.1051116036165</v>
       </c>
       <c r="E17" t="n">
-        <v>307.0760837427385</v>
+        <v>100.241825359951</v>
       </c>
       <c r="F17" t="n">
         <v>321.2438881934396</v>
       </c>
       <c r="G17" t="n">
-        <v>199.008468574559</v>
+        <v>317.4258234951127</v>
       </c>
       <c r="H17" t="n">
-        <v>228.0937860584905</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>40.7032507312116</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.54803245529739</v>
+        <v>70.54803245529737</v>
       </c>
       <c r="T17" t="n">
         <v>129.2425000346378</v>
@@ -1906,7 +1906,7 @@
         <v>247.2041353116344</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.807438789513</v>
       </c>
       <c r="X17" t="n">
         <v>294.0764731243913</v>
@@ -1943,7 +1943,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I18" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390608</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395927</v>
       </c>
       <c r="S18" t="n">
         <v>132.3520209748092</v>
@@ -2004,7 +2004,7 @@
         <v>91.87433261250587</v>
       </c>
       <c r="C19" t="n">
-        <v>77.02146086278761</v>
+        <v>77.02146086278827</v>
       </c>
       <c r="D19" t="n">
         <v>62.595176074628</v>
@@ -2016,13 +2016,13 @@
         <v>64.27106954727438</v>
       </c>
       <c r="G19" t="n">
-        <v>75.03442054969292</v>
+        <v>75.03442054969248</v>
       </c>
       <c r="H19" t="n">
         <v>61.9488304750188</v>
       </c>
       <c r="I19" t="n">
-        <v>38.61323220584101</v>
+        <v>38.613232205841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.68547988923562</v>
+        <v>28.68547988923561</v>
       </c>
       <c r="S19" t="n">
         <v>108.3393314002176</v>
@@ -2092,7 +2092,7 @@
         <v>307.0760837427385</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>321.2438881934396</v>
       </c>
       <c r="G20" t="n">
         <v>317.4258234951127</v>
@@ -2101,7 +2101,7 @@
         <v>228.0937860584905</v>
       </c>
       <c r="I20" t="n">
-        <v>40.70325073121162</v>
+        <v>40.7032507312116</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.54803245529737</v>
       </c>
       <c r="T20" t="n">
-        <v>129.2425000346378</v>
+        <v>103.2222913972689</v>
       </c>
       <c r="U20" t="n">
-        <v>161.7037004922744</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>247.2041353116344</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>275.807438789513</v>
       </c>
       <c r="X20" t="n">
-        <v>250.9403493318505</v>
+        <v>294.0764731243913</v>
       </c>
       <c r="Y20" t="n">
         <v>301.0441960967225</v>
@@ -2180,7 +2180,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I21" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390608</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395927</v>
       </c>
       <c r="S21" t="n">
         <v>132.3520209748092</v>
@@ -2256,7 +2256,7 @@
         <v>75.03442054969292</v>
       </c>
       <c r="H22" t="n">
-        <v>61.94883047501872</v>
+        <v>61.94883047501881</v>
       </c>
       <c r="I22" t="n">
         <v>38.613232205841</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.68547988923602</v>
+        <v>28.68547988923561</v>
       </c>
       <c r="S22" t="n">
         <v>108.3393314002176</v>
@@ -2295,7 +2295,7 @@
         <v>141.643174945315</v>
       </c>
       <c r="U22" t="n">
-        <v>191.0997713893635</v>
+        <v>191.0997713893639</v>
       </c>
       <c r="V22" t="n">
         <v>171.8379458355016</v>
@@ -2323,7 +2323,7 @@
         <v>297.7621405902163</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>172.9292349292708</v>
       </c>
       <c r="E23" t="n">
         <v>307.0760837427385</v>
@@ -2338,7 +2338,7 @@
         <v>228.0937860584905</v>
       </c>
       <c r="I23" t="n">
-        <v>40.70325073121162</v>
+        <v>40.70325073121161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.54803245529739</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>129.2425000346378</v>
@@ -2377,7 +2377,7 @@
         <v>161.7037004922744</v>
       </c>
       <c r="V23" t="n">
-        <v>102.3812024739729</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>275.807438789513</v>
@@ -2417,7 +2417,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I24" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S24" t="n">
         <v>132.3520209748092</v>
@@ -2496,7 +2496,7 @@
         <v>61.9488304750188</v>
       </c>
       <c r="I25" t="n">
-        <v>38.61323220584101</v>
+        <v>38.613232205841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.68547988923562</v>
+        <v>28.68547988923561</v>
       </c>
       <c r="S25" t="n">
         <v>108.3393314002176</v>
@@ -2563,7 +2563,7 @@
         <v>290.1051116036165</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>307.0760837427384</v>
       </c>
       <c r="F26" t="n">
         <v>321.2438881934396</v>
@@ -2575,7 +2575,7 @@
         <v>228.0937860584904</v>
       </c>
       <c r="I26" t="n">
-        <v>40.70325073121159</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54803245529736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>129.2425000346377</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>161.7037004922744</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>247.2041353116344</v>
+        <v>214.4735745837781</v>
       </c>
       <c r="W26" t="n">
         <v>275.807438789513</v>
       </c>
       <c r="X26" t="n">
-        <v>166.2245124258522</v>
+        <v>294.0764731243913</v>
       </c>
       <c r="Y26" t="n">
         <v>301.0441960967224</v>
@@ -2654,7 +2654,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I27" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S27" t="n">
         <v>132.3520209748092</v>
@@ -2733,7 +2733,7 @@
         <v>61.94883047501877</v>
       </c>
       <c r="I28" t="n">
-        <v>38.61323220584098</v>
+        <v>38.61323220584111</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.68547988923512</v>
+        <v>28.68547988923558</v>
       </c>
       <c r="S28" t="n">
         <v>108.3393314002175</v>
@@ -2794,13 +2794,13 @@
         <v>305.0081923624005</v>
       </c>
       <c r="C29" t="n">
-        <v>297.7621405902163</v>
+        <v>202.179165393938</v>
       </c>
       <c r="D29" t="n">
         <v>290.1051116036165</v>
       </c>
       <c r="E29" t="n">
-        <v>277.1979781256122</v>
+        <v>307.0760837427384</v>
       </c>
       <c r="F29" t="n">
         <v>321.2438881934396</v>
@@ -2809,10 +2809,10 @@
         <v>317.4258234951127</v>
       </c>
       <c r="H29" t="n">
-        <v>228.0937860584904</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.70325073121159</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54803245529736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>129.2425000346377</v>
       </c>
       <c r="U29" t="n">
         <v>161.7037004922744</v>
@@ -2854,7 +2854,7 @@
         <v>247.2041353116344</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>275.807438789513</v>
       </c>
       <c r="X29" t="n">
         <v>294.0764731243913</v>
@@ -2891,7 +2891,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I30" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S30" t="n">
         <v>132.3520209748092</v>
@@ -2970,7 +2970,7 @@
         <v>61.94883047501877</v>
       </c>
       <c r="I31" t="n">
-        <v>38.61323220584098</v>
+        <v>38.61323220584097</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.68547988923559</v>
+        <v>28.6854798892358</v>
       </c>
       <c r="S31" t="n">
         <v>108.3393314002175</v>
@@ -3018,7 +3018,7 @@
         <v>140.2579131029643</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.3993346796405</v>
+        <v>129.3993346796406</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>228.0937860584904</v>
       </c>
       <c r="I32" t="n">
-        <v>40.70325073121159</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.54803245529736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>129.2425000346377</v>
       </c>
       <c r="U32" t="n">
-        <v>161.7037004922744</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>247.2041353116344</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>275.807438789513</v>
       </c>
       <c r="X32" t="n">
-        <v>294.0764731243913</v>
+        <v>91.4001616306857</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.9235904449573</v>
+        <v>301.0441960967224</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I33" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S33" t="n">
         <v>132.3520209748092</v>
@@ -3204,10 +3204,10 @@
         <v>75.0344205496929</v>
       </c>
       <c r="H34" t="n">
-        <v>61.94883047501877</v>
+        <v>61.94883047501878</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61323220584098</v>
+        <v>38.61323220584097</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.68547988923559</v>
+        <v>28.68547988923558</v>
       </c>
       <c r="S34" t="n">
         <v>108.3393314002175</v>
@@ -3243,13 +3243,13 @@
         <v>141.643174945315</v>
       </c>
       <c r="U34" t="n">
-        <v>191.0997713893643</v>
+        <v>191.0997713893646</v>
       </c>
       <c r="V34" t="n">
         <v>171.8379458355016</v>
       </c>
       <c r="W34" t="n">
-        <v>189.0154921562516</v>
+        <v>189.0154921562517</v>
       </c>
       <c r="X34" t="n">
         <v>140.2579131029643</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>193.3919274949005</v>
+        <v>321.2438881934396</v>
       </c>
       <c r="G35" t="n">
         <v>317.4258234951127</v>
@@ -3286,7 +3286,7 @@
         <v>228.0937860584904</v>
       </c>
       <c r="I35" t="n">
-        <v>40.70325073121159</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.54803245529736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>129.2425000346377</v>
+        <v>112.6418225226076</v>
       </c>
       <c r="U35" t="n">
         <v>161.7037004922744</v>
@@ -3365,7 +3365,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I36" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S36" t="n">
         <v>132.3520209748092</v>
@@ -3444,7 +3444,7 @@
         <v>61.94883047501877</v>
       </c>
       <c r="I37" t="n">
-        <v>38.61323220584098</v>
+        <v>38.61323220584097</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.68547988923559</v>
+        <v>28.68547988923558</v>
       </c>
       <c r="S37" t="n">
         <v>108.3393314002175</v>
@@ -3480,7 +3480,7 @@
         <v>141.643174945315</v>
       </c>
       <c r="U37" t="n">
-        <v>191.0997713893643</v>
+        <v>191.0997713893646</v>
       </c>
       <c r="V37" t="n">
         <v>171.8379458355016</v>
@@ -3511,7 +3511,7 @@
         <v>290.1051116036165</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>307.0760837427384</v>
       </c>
       <c r="F38" t="n">
         <v>321.2438881934396</v>
@@ -3520,10 +3520,10 @@
         <v>317.4258234951127</v>
       </c>
       <c r="H38" t="n">
-        <v>228.0937860584904</v>
+        <v>124.8151928753369</v>
       </c>
       <c r="I38" t="n">
-        <v>40.70325073121159</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.54803245529736</v>
+        <v>70.54803245529735</v>
       </c>
       <c r="T38" t="n">
-        <v>129.2425000346377</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.7037004922744</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>119.352174613095</v>
+        <v>247.2041353116344</v>
       </c>
       <c r="W38" t="n">
         <v>275.807438789513</v>
@@ -3602,7 +3602,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I39" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S39" t="n">
         <v>132.3520209748092</v>
@@ -3678,7 +3678,7 @@
         <v>75.0344205496929</v>
       </c>
       <c r="H40" t="n">
-        <v>61.94883047501878</v>
+        <v>61.94883047501877</v>
       </c>
       <c r="I40" t="n">
         <v>38.61323220584097</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.68547988923559</v>
+        <v>28.68547988923558</v>
       </c>
       <c r="S40" t="n">
-        <v>108.3393314002176</v>
+        <v>108.3393314002175</v>
       </c>
       <c r="T40" t="n">
         <v>141.643174945315</v>
       </c>
       <c r="U40" t="n">
-        <v>191.0997713893639</v>
+        <v>191.0997713893643</v>
       </c>
       <c r="V40" t="n">
         <v>171.8379458355016</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>309.1492002993322</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>377.1916394450465</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.9074293869951</v>
       </c>
       <c r="H41" t="n">
-        <v>319.5753919503729</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>132.184856623094</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S41" t="n">
-        <v>162.0296383471798</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.7241059265202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3839,7 +3839,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I42" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S42" t="n">
         <v>132.3520209748092</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>56.93457682265642</v>
       </c>
       <c r="C43" t="n">
-        <v>24.64199655708078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.8209372921</v>
       </c>
       <c r="T43" t="n">
         <v>233.1247808371974</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>319.5753919503729</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>132.184856623094</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>253.1853063841568</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>284.2030670746459</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.1022380006686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>86.77523862779849</v>
       </c>
       <c r="I45" t="n">
-        <v>46.6146583239061</v>
+        <v>46.61465832390609</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.56862368395929</v>
+        <v>19.56862368395928</v>
       </c>
       <c r="S45" t="n">
         <v>132.3520209748092</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.6115930712217</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5160264415753</v>
+        <v>49.07277285875076</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.6264729102897</v>
+        <v>891.9413535194278</v>
       </c>
       <c r="C2" t="n">
-        <v>207.6264729102897</v>
+        <v>891.9413535194278</v>
       </c>
       <c r="D2" t="n">
-        <v>207.6264729102897</v>
+        <v>506.5002247360956</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6264729102897</v>
+        <v>506.5002247360956</v>
       </c>
       <c r="F2" t="n">
-        <v>194.7724384806716</v>
+        <v>89.60578626607332</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2107.170377096223</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.170377096223</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1765.063567799741</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.064532768029</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X2" t="n">
-        <v>1004.611927701086</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y2" t="n">
-        <v>608.1212186216866</v>
+        <v>1292.436099230825</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
         <v>1209.141762214911</v>
@@ -4442,19 +4442,19 @@
         <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.1095106996158</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="C4" t="n">
-        <v>257.1095106996158</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1095106996158</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="E4" t="n">
-        <v>257.1095106996158</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F4" t="n">
-        <v>257.1095106996158</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G4" t="n">
-        <v>88.85545679906139</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>779.365654915262</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>779.365654915262</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>779.365654915262</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>779.365654915262</v>
       </c>
       <c r="W4" t="n">
-        <v>665.4295905742738</v>
+        <v>779.365654915262</v>
       </c>
       <c r="X4" t="n">
-        <v>665.4295905742738</v>
+        <v>779.365654915262</v>
       </c>
       <c r="Y4" t="n">
-        <v>442.3175293909171</v>
+        <v>556.2535937319053</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>862.595309970646</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="C5" t="n">
-        <v>611.6668769506938</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D5" t="n">
-        <v>611.6668769506938</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E5" t="n">
-        <v>611.6668769506938</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F5" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2023.541695780699</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.542660748986</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="X5" t="n">
-        <v>1263.090055682043</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1263.090055682043</v>
+        <v>406.3401482638154</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0279748558771</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>443.7671209181035</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>443.7671209181035</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1029.265125924706</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.763130931308</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O6" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.8963582094524</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4758,19 +4758,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>890.2967603011273</v>
+        <v>909.1685699790346</v>
       </c>
       <c r="V7" t="n">
-        <v>890.2967603011273</v>
+        <v>909.1685699790346</v>
       </c>
       <c r="W7" t="n">
-        <v>890.2967603011273</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="X7" t="n">
-        <v>656.2164380841103</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.1043769007537</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.996335360124</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.996335360124</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.996335360124</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
         <v>784.5587760470498</v>
@@ -4810,19 +4810,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2212.978470624443</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="U8" t="n">
-        <v>1996.981790150919</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="V8" t="n">
-        <v>1996.981790150919</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="W8" t="n">
-        <v>1996.981790150919</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.981790150919</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.491081071521</v>
+        <v>1989.47786818386</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>140.0776713099957</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1802.660654370193</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N10" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O10" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P10" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>2080.209713319081</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>2080.209713319081</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>2080.209713319081</v>
+        <v>674.710471435928</v>
       </c>
       <c r="X10" t="n">
-        <v>1987.868673061494</v>
+        <v>440.630149218911</v>
       </c>
       <c r="Y10" t="n">
-        <v>1987.868673061494</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1446.273689287657</v>
+        <v>1655.197182603604</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.273689287657</v>
+        <v>1354.427343623588</v>
       </c>
       <c r="D11" t="n">
-        <v>1291.789641052753</v>
+        <v>1061.391877357308</v>
       </c>
       <c r="E11" t="n">
-        <v>981.611778686351</v>
+        <v>751.214014990906</v>
       </c>
       <c r="F11" t="n">
-        <v>657.1230027333818</v>
+        <v>426.7252390379367</v>
       </c>
       <c r="G11" t="n">
-        <v>336.4908577888234</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="H11" t="n">
-        <v>106.0930940933785</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="I11" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J11" t="n">
         <v>220.0222462047604</v>
       </c>
       <c r="K11" t="n">
-        <v>594.5821749712309</v>
+        <v>594.582174971231</v>
       </c>
       <c r="L11" t="n">
-        <v>1107.227823135706</v>
+        <v>1107.227823135707</v>
       </c>
       <c r="M11" t="n">
         <v>1674.731905823947</v>
       </c>
       <c r="N11" t="n">
-        <v>2224.394316081128</v>
+        <v>2224.394316081129</v>
       </c>
       <c r="O11" t="n">
-        <v>2685.067316215457</v>
+        <v>2685.067316215458</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q11" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R11" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S11" t="n">
-        <v>3177.674331925611</v>
+        <v>3177.674331925612</v>
       </c>
       <c r="T11" t="n">
-        <v>3047.126352092643</v>
+        <v>3047.126352092644</v>
       </c>
       <c r="U11" t="n">
-        <v>2883.789280888326</v>
+        <v>2883.789280888327</v>
       </c>
       <c r="V11" t="n">
-        <v>2634.088134108897</v>
+        <v>2634.088134108898</v>
       </c>
       <c r="W11" t="n">
-        <v>2355.494761594237</v>
+        <v>2564.418254910184</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.447819044347</v>
+        <v>2267.371312360294</v>
       </c>
       <c r="Y11" t="n">
-        <v>1754.362772482001</v>
+        <v>1963.286265797948</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.0642128738779</v>
       </c>
       <c r="I12" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J12" t="n">
-        <v>184.2841421538877</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="K12" t="n">
-        <v>184.2841421538877</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="L12" t="n">
-        <v>184.2841421538877</v>
+        <v>525.330835187779</v>
       </c>
       <c r="M12" t="n">
-        <v>508.8421037022085</v>
+        <v>1169.704448705159</v>
       </c>
       <c r="N12" t="n">
-        <v>1181.661443386968</v>
+        <v>1842.523788389918</v>
       </c>
       <c r="O12" t="n">
-        <v>1713.771248830272</v>
+        <v>2374.633593833223</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.904584032272</v>
+        <v>2374.633593833223</v>
       </c>
       <c r="Q12" t="n">
         <v>2374.633593833223</v>
@@ -5196,19 +5196,19 @@
         <v>103.9819642697718</v>
       </c>
       <c r="I13" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6554426406246</v>
+        <v>129.6554426406247</v>
       </c>
       <c r="K13" t="n">
-        <v>308.4393791188926</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L13" t="n">
-        <v>571.3007066288892</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7699234500587</v>
+        <v>856.7699234500589</v>
       </c>
       <c r="N13" t="n">
         <v>1138.932449229471</v>
@@ -5217,7 +5217,7 @@
         <v>1399.968401789887</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.055139249387</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q13" t="n">
         <v>1715.643935631293</v>
@@ -5229,13 +5229,13 @@
         <v>1577.235035338916</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.161121252739</v>
+        <v>1434.16112125274</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.13104914227</v>
+        <v>1241.131049142271</v>
       </c>
       <c r="V13" t="n">
-        <v>1067.557366480147</v>
+        <v>1067.557366480148</v>
       </c>
       <c r="W13" t="n">
         <v>876.6326269283783</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.480551621058</v>
+        <v>1885.594946299049</v>
       </c>
       <c r="C14" t="n">
-        <v>1543.710712641041</v>
+        <v>1584.825107319033</v>
       </c>
       <c r="D14" t="n">
-        <v>1250.675246374762</v>
+        <v>1291.789641052753</v>
       </c>
       <c r="E14" t="n">
-        <v>940.4973840083594</v>
+        <v>981.611778686351</v>
       </c>
       <c r="F14" t="n">
-        <v>616.0086080553901</v>
+        <v>657.1230027333817</v>
       </c>
       <c r="G14" t="n">
-        <v>295.3764631108318</v>
+        <v>336.4908577888233</v>
       </c>
       <c r="H14" t="n">
-        <v>64.97869941538691</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="I14" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J14" t="n">
-        <v>220.0222462047604</v>
+        <v>220.0222462047606</v>
       </c>
       <c r="K14" t="n">
-        <v>594.5821749712306</v>
+        <v>594.5821749712311</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.227823135706</v>
+        <v>1107.227823135707</v>
       </c>
       <c r="M14" t="n">
-        <v>1674.731905823946</v>
+        <v>1674.731905823947</v>
       </c>
       <c r="N14" t="n">
-        <v>2224.394316081128</v>
+        <v>2224.394316081129</v>
       </c>
       <c r="O14" t="n">
-        <v>2685.067316215457</v>
+        <v>2685.067316215458</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q14" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R14" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S14" t="n">
-        <v>3177.674331925611</v>
+        <v>3177.674331925612</v>
       </c>
       <c r="T14" t="n">
-        <v>3047.126352092643</v>
+        <v>3047.126352092644</v>
       </c>
       <c r="U14" t="n">
-        <v>2883.789280888326</v>
+        <v>2883.789280888327</v>
       </c>
       <c r="V14" t="n">
-        <v>2634.088134108897</v>
+        <v>2769.324344557943</v>
       </c>
       <c r="W14" t="n">
-        <v>2355.494761594237</v>
+        <v>2490.730972043284</v>
       </c>
       <c r="X14" t="n">
-        <v>2152.569634815402</v>
+        <v>2193.684029493393</v>
       </c>
       <c r="Y14" t="n">
-        <v>2152.569634815402</v>
+        <v>2193.684029493393</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>112.0642128738779</v>
       </c>
       <c r="I15" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J15" t="n">
-        <v>64.97869941538691</v>
+        <v>141.5144543860754</v>
       </c>
       <c r="K15" t="n">
-        <v>395.2983285062415</v>
+        <v>141.5144543860754</v>
       </c>
       <c r="L15" t="n">
-        <v>893.09117954925</v>
+        <v>639.307305429084</v>
       </c>
       <c r="M15" t="n">
-        <v>1537.46479306663</v>
+        <v>1283.680918946464</v>
       </c>
       <c r="N15" t="n">
-        <v>1842.523788389918</v>
+        <v>1956.500258631223</v>
       </c>
       <c r="O15" t="n">
-        <v>2374.633593833223</v>
+        <v>1956.500258631223</v>
       </c>
       <c r="P15" t="n">
         <v>2374.633593833223</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.4492123878616</v>
+        <v>511.4492123878622</v>
       </c>
       <c r="C16" t="n">
-        <v>433.6497569709037</v>
+        <v>433.6497569709044</v>
       </c>
       <c r="D16" t="n">
         <v>370.422306390472</v>
@@ -5433,19 +5433,19 @@
         <v>103.9819642697718</v>
       </c>
       <c r="I16" t="n">
-        <v>64.97869941538691</v>
+        <v>64.97869941538693</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6554426406246</v>
+        <v>129.6554426406247</v>
       </c>
       <c r="K16" t="n">
-        <v>308.4393791188926</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L16" t="n">
-        <v>571.3007066288892</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7699234500587</v>
+        <v>856.7699234500589</v>
       </c>
       <c r="N16" t="n">
         <v>1138.932449229471</v>
@@ -5454,7 +5454,7 @@
         <v>1399.968401789887</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.055139249387</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q16" t="n">
         <v>1715.643935631293</v>
@@ -5475,13 +5475,13 @@
         <v>1067.557366480147</v>
       </c>
       <c r="W16" t="n">
-        <v>876.6326269283776</v>
+        <v>876.632626928378</v>
       </c>
       <c r="X16" t="n">
-        <v>734.9579672284136</v>
+        <v>734.9579672284141</v>
       </c>
       <c r="Y16" t="n">
-        <v>604.2515685621099</v>
+        <v>604.2515685621104</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1724.867061802317</v>
+        <v>1446.273689287657</v>
       </c>
       <c r="C17" t="n">
-        <v>1424.0972228223</v>
+        <v>1145.503850307641</v>
       </c>
       <c r="D17" t="n">
-        <v>1131.061756556021</v>
+        <v>852.4683840413616</v>
       </c>
       <c r="E17" t="n">
-        <v>820.8838941896183</v>
+        <v>751.214014990906</v>
       </c>
       <c r="F17" t="n">
-        <v>496.395118236649</v>
+        <v>426.7252390379367</v>
       </c>
       <c r="G17" t="n">
-        <v>295.3764631108318</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="H17" t="n">
-        <v>64.97869941538691</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="I17" t="n">
         <v>64.97869941538691</v>
       </c>
       <c r="J17" t="n">
-        <v>220.0222462047604</v>
+        <v>220.0222462047602</v>
       </c>
       <c r="K17" t="n">
-        <v>594.5821749712309</v>
+        <v>594.5821749712308</v>
       </c>
       <c r="L17" t="n">
         <v>1107.227823135706</v>
@@ -5533,34 +5533,34 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P17" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q17" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R17" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S17" t="n">
         <v>3177.674331925611</v>
       </c>
       <c r="T17" t="n">
-        <v>3047.126352092643</v>
+        <v>3047.126352092644</v>
       </c>
       <c r="U17" t="n">
         <v>2883.789280888326</v>
       </c>
       <c r="V17" t="n">
-        <v>2634.088134108897</v>
+        <v>2634.088134108898</v>
       </c>
       <c r="W17" t="n">
-        <v>2634.088134108897</v>
+        <v>2355.494761594238</v>
       </c>
       <c r="X17" t="n">
-        <v>2337.041191559007</v>
+        <v>2058.447819044347</v>
       </c>
       <c r="Y17" t="n">
-        <v>2032.956144996661</v>
+        <v>1754.362772482001</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J18" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K18" t="n">
-        <v>395.2983285062415</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L18" t="n">
-        <v>893.09117954925</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M18" t="n">
-        <v>1537.46479306663</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N18" t="n">
-        <v>1537.46479306663</v>
+        <v>1424.390453187918</v>
       </c>
       <c r="O18" t="n">
-        <v>2069.574598509934</v>
+        <v>1956.500258631223</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.904584032272</v>
+        <v>2374.633593833223</v>
       </c>
       <c r="Q18" t="n">
         <v>2374.633593833223</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.4492123878616</v>
+        <v>511.4492123878618</v>
       </c>
       <c r="C19" t="n">
-        <v>433.6497569709044</v>
+        <v>433.6497569709039</v>
       </c>
       <c r="D19" t="n">
-        <v>370.422306390472</v>
+        <v>370.4223063904716</v>
       </c>
       <c r="E19" t="n">
-        <v>307.2691567667275</v>
+        <v>307.269156766727</v>
       </c>
       <c r="F19" t="n">
-        <v>242.3488844967533</v>
+        <v>242.3488844967529</v>
       </c>
       <c r="G19" t="n">
         <v>166.5565405071645</v>
@@ -5676,7 +5676,7 @@
         <v>129.6554426406246</v>
       </c>
       <c r="K19" t="n">
-        <v>308.4393791188926</v>
+        <v>308.4393791188927</v>
       </c>
       <c r="L19" t="n">
         <v>571.3007066288892</v>
@@ -5712,13 +5712,13 @@
         <v>1067.557366480147</v>
       </c>
       <c r="W19" t="n">
-        <v>876.6326269283776</v>
+        <v>876.6326269283778</v>
       </c>
       <c r="X19" t="n">
-        <v>734.9579672284136</v>
+        <v>734.9579672284138</v>
       </c>
       <c r="Y19" t="n">
-        <v>604.2515685621099</v>
+        <v>604.2515685621102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1561.10617034608</v>
+        <v>1885.594946299049</v>
       </c>
       <c r="C20" t="n">
-        <v>1260.336331366064</v>
+        <v>1584.825107319033</v>
       </c>
       <c r="D20" t="n">
-        <v>967.3008650997842</v>
+        <v>1291.789641052753</v>
       </c>
       <c r="E20" t="n">
-        <v>657.1230027333818</v>
+        <v>981.611778686351</v>
       </c>
       <c r="F20" t="n">
-        <v>657.1230027333818</v>
+        <v>657.1230027333817</v>
       </c>
       <c r="G20" t="n">
-        <v>336.4908577888234</v>
+        <v>336.4908577888233</v>
       </c>
       <c r="H20" t="n">
-        <v>106.0930940933785</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="I20" t="n">
         <v>64.97869941538691</v>
@@ -5755,10 +5755,10 @@
         <v>220.0222462047604</v>
       </c>
       <c r="K20" t="n">
-        <v>594.5821749712309</v>
+        <v>594.5821749712308</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.227823135707</v>
+        <v>1107.227823135706</v>
       </c>
       <c r="M20" t="n">
         <v>1674.731905823947</v>
@@ -5770,34 +5770,34 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P20" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q20" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R20" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S20" t="n">
-        <v>3248.934970769345</v>
+        <v>3177.674331925611</v>
       </c>
       <c r="T20" t="n">
-        <v>3118.386990936378</v>
+        <v>3073.409391120289</v>
       </c>
       <c r="U20" t="n">
-        <v>2955.049919732061</v>
+        <v>3073.409391120289</v>
       </c>
       <c r="V20" t="n">
-        <v>2705.348772952632</v>
+        <v>3073.409391120289</v>
       </c>
       <c r="W20" t="n">
-        <v>2426.755400437972</v>
+        <v>2794.816018605629</v>
       </c>
       <c r="X20" t="n">
-        <v>2173.28030010277</v>
+        <v>2497.769076055739</v>
       </c>
       <c r="Y20" t="n">
-        <v>1869.195253540424</v>
+        <v>2193.684029493393</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J21" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K21" t="n">
-        <v>64.97869941538691</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L21" t="n">
-        <v>525.3308351877791</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M21" t="n">
-        <v>1169.704448705159</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N21" t="n">
-        <v>1842.523788389918</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O21" t="n">
-        <v>2374.633593833223</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P21" t="n">
-        <v>2374.633593833223</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q21" t="n">
         <v>2374.633593833223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2044.740247525915</v>
+        <v>511.4492123878623</v>
       </c>
       <c r="C22" t="n">
-        <v>1966.940792108957</v>
+        <v>433.6497569709044</v>
       </c>
       <c r="D22" t="n">
-        <v>1903.713341528525</v>
+        <v>370.4223063904721</v>
       </c>
       <c r="E22" t="n">
-        <v>1840.56019190478</v>
+        <v>307.2691567667275</v>
       </c>
       <c r="F22" t="n">
-        <v>1775.639919634806</v>
+        <v>242.3488844967534</v>
       </c>
       <c r="G22" t="n">
-        <v>1699.847575645217</v>
+        <v>166.5565405071645</v>
       </c>
       <c r="H22" t="n">
-        <v>1637.272999407824</v>
+        <v>103.9819642697718</v>
       </c>
       <c r="I22" t="n">
-        <v>1598.26973455344</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="J22" t="n">
-        <v>1662.946477778677</v>
+        <v>129.6554426406247</v>
       </c>
       <c r="K22" t="n">
-        <v>1841.730414256945</v>
+        <v>308.4393791188927</v>
       </c>
       <c r="L22" t="n">
-        <v>2104.591741766942</v>
+        <v>571.3007066288892</v>
       </c>
       <c r="M22" t="n">
-        <v>2390.060958588111</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N22" t="n">
-        <v>2672.223484367523</v>
+        <v>1138.932449229471</v>
       </c>
       <c r="O22" t="n">
-        <v>2933.25943692794</v>
+        <v>1399.968401789887</v>
       </c>
       <c r="P22" t="n">
-        <v>3150.34617438744</v>
+        <v>1617.055139249387</v>
       </c>
       <c r="Q22" t="n">
-        <v>3248.934970769345</v>
+        <v>1715.643935631293</v>
       </c>
       <c r="R22" t="n">
-        <v>3219.959738557996</v>
+        <v>1686.668703419944</v>
       </c>
       <c r="S22" t="n">
-        <v>3110.526070476968</v>
+        <v>1577.235035338916</v>
       </c>
       <c r="T22" t="n">
-        <v>2967.452156390791</v>
+        <v>1434.161121252739</v>
       </c>
       <c r="U22" t="n">
-        <v>2774.422084280323</v>
+        <v>1241.131049142271</v>
       </c>
       <c r="V22" t="n">
-        <v>2600.8484016182</v>
+        <v>1067.557366480148</v>
       </c>
       <c r="W22" t="n">
-        <v>2409.923662066431</v>
+        <v>876.6326269283783</v>
       </c>
       <c r="X22" t="n">
-        <v>2268.249002366467</v>
+        <v>734.9579672284143</v>
       </c>
       <c r="Y22" t="n">
-        <v>2137.542603700163</v>
+        <v>604.2515685621106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.55948003277</v>
+        <v>1767.235474910821</v>
       </c>
       <c r="C23" t="n">
-        <v>1291.789641052753</v>
+        <v>1466.465635930805</v>
       </c>
       <c r="D23" t="n">
         <v>1291.789641052753</v>
@@ -5977,64 +5977,64 @@
         <v>981.611778686351</v>
       </c>
       <c r="F23" t="n">
-        <v>657.1230027333818</v>
+        <v>657.1230027333817</v>
       </c>
       <c r="G23" t="n">
-        <v>336.4908577888234</v>
+        <v>336.4908577888233</v>
       </c>
       <c r="H23" t="n">
-        <v>106.0930940933785</v>
+        <v>106.0930940933784</v>
       </c>
       <c r="I23" t="n">
         <v>64.97869941538691</v>
       </c>
       <c r="J23" t="n">
-        <v>220.0222462047604</v>
+        <v>220.0222462047609</v>
       </c>
       <c r="K23" t="n">
-        <v>594.5821749712309</v>
+        <v>594.5821749712313</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.227823135706</v>
+        <v>1107.227823135707</v>
       </c>
       <c r="M23" t="n">
         <v>1674.731905823947</v>
       </c>
       <c r="N23" t="n">
-        <v>2224.394316081128</v>
+        <v>2224.394316081129</v>
       </c>
       <c r="O23" t="n">
         <v>2685.067316215457</v>
       </c>
       <c r="P23" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q23" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R23" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S23" t="n">
-        <v>3177.674331925611</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="T23" t="n">
-        <v>3047.126352092643</v>
+        <v>3118.386990936378</v>
       </c>
       <c r="U23" t="n">
-        <v>2883.789280888326</v>
+        <v>2955.049919732061</v>
       </c>
       <c r="V23" t="n">
-        <v>2780.37392485401</v>
+        <v>2955.049919732061</v>
       </c>
       <c r="W23" t="n">
-        <v>2501.78055233935</v>
+        <v>2676.456547217401</v>
       </c>
       <c r="X23" t="n">
-        <v>2204.733609789459</v>
+        <v>2379.409604667511</v>
       </c>
       <c r="Y23" t="n">
-        <v>1900.648563227114</v>
+        <v>2075.324558105165</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J24" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K24" t="n">
-        <v>64.97869941538691</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L24" t="n">
-        <v>562.7715504583953</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M24" t="n">
-        <v>1207.145163975775</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N24" t="n">
-        <v>1207.145163975775</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O24" t="n">
-        <v>1739.25496941908</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P24" t="n">
-        <v>2157.388304621079</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q24" t="n">
         <v>2374.633593833223</v>
@@ -6150,13 +6150,13 @@
         <v>129.6554426406246</v>
       </c>
       <c r="K25" t="n">
-        <v>308.4393791188933</v>
+        <v>308.4393791188927</v>
       </c>
       <c r="L25" t="n">
-        <v>571.3007066288898</v>
+        <v>571.3007066288892</v>
       </c>
       <c r="M25" t="n">
-        <v>856.7699234500592</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N25" t="n">
         <v>1138.932449229471</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.417083932646</v>
+        <v>1844.480551621057</v>
       </c>
       <c r="C26" t="n">
-        <v>1274.64724495263</v>
+        <v>1543.710712641041</v>
       </c>
       <c r="D26" t="n">
-        <v>981.6117786863508</v>
+        <v>1250.675246374762</v>
       </c>
       <c r="E26" t="n">
-        <v>981.6117786863508</v>
+        <v>940.4973840083594</v>
       </c>
       <c r="F26" t="n">
-        <v>657.1230027333816</v>
+        <v>616.0086080553901</v>
       </c>
       <c r="G26" t="n">
-        <v>336.4908577888233</v>
+        <v>295.3764631108318</v>
       </c>
       <c r="H26" t="n">
-        <v>106.0930940933784</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I26" t="n">
         <v>64.97869941538691</v>
       </c>
       <c r="J26" t="n">
-        <v>220.0222462047604</v>
+        <v>220.0222462047609</v>
       </c>
       <c r="K26" t="n">
         <v>594.5821749712309</v>
@@ -6244,34 +6244,34 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P26" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q26" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R26" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S26" t="n">
-        <v>3177.674331925611</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="T26" t="n">
-        <v>3047.126352092643</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="U26" t="n">
-        <v>2883.789280888326</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="V26" t="n">
-        <v>2634.088134108897</v>
+        <v>3032.294996442297</v>
       </c>
       <c r="W26" t="n">
-        <v>2355.494761594237</v>
+        <v>2753.701623927638</v>
       </c>
       <c r="X26" t="n">
-        <v>2187.591213689336</v>
+        <v>2456.654681377747</v>
       </c>
       <c r="Y26" t="n">
-        <v>1883.50616712699</v>
+        <v>2152.569634815402</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J27" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K27" t="n">
-        <v>395.2983285062415</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L27" t="n">
-        <v>893.09117954925</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M27" t="n">
-        <v>1537.46479306663</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N27" t="n">
-        <v>1537.46479306663</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O27" t="n">
         <v>1713.771248830272</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2044.740247525915</v>
+        <v>511.4492123878621</v>
       </c>
       <c r="C28" t="n">
-        <v>1966.940792108957</v>
+        <v>433.6497569709043</v>
       </c>
       <c r="D28" t="n">
-        <v>1903.713341528525</v>
+        <v>370.422306390472</v>
       </c>
       <c r="E28" t="n">
-        <v>1840.56019190478</v>
+        <v>307.2691567667275</v>
       </c>
       <c r="F28" t="n">
-        <v>1775.639919634806</v>
+        <v>242.3488844967534</v>
       </c>
       <c r="G28" t="n">
-        <v>1699.847575645217</v>
+        <v>166.5565405071646</v>
       </c>
       <c r="H28" t="n">
-        <v>1637.272999407824</v>
+        <v>103.9819642697719</v>
       </c>
       <c r="I28" t="n">
-        <v>1598.26973455344</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="J28" t="n">
-        <v>1662.946477778677</v>
+        <v>129.6554426406247</v>
       </c>
       <c r="K28" t="n">
-        <v>1841.730414256946</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L28" t="n">
-        <v>2104.591741766942</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M28" t="n">
-        <v>2390.060958588112</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N28" t="n">
-        <v>2672.223484367524</v>
+        <v>1138.932449229471</v>
       </c>
       <c r="O28" t="n">
-        <v>2933.25943692794</v>
+        <v>1399.968401789887</v>
       </c>
       <c r="P28" t="n">
-        <v>3150.34617438744</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q28" t="n">
-        <v>3248.934970769345</v>
+        <v>1715.643935631293</v>
       </c>
       <c r="R28" t="n">
-        <v>3219.959738557997</v>
+        <v>1686.668703419944</v>
       </c>
       <c r="S28" t="n">
-        <v>3110.526070476969</v>
+        <v>1577.235035338916</v>
       </c>
       <c r="T28" t="n">
-        <v>2967.452156390792</v>
+        <v>1434.161121252739</v>
       </c>
       <c r="U28" t="n">
-        <v>2774.422084280323</v>
+        <v>1241.13104914227</v>
       </c>
       <c r="V28" t="n">
-        <v>2600.8484016182</v>
+        <v>1067.557366480147</v>
       </c>
       <c r="W28" t="n">
-        <v>2409.923662066431</v>
+        <v>876.632626928378</v>
       </c>
       <c r="X28" t="n">
-        <v>2268.249002366467</v>
+        <v>734.9579672284141</v>
       </c>
       <c r="Y28" t="n">
-        <v>2137.542603700163</v>
+        <v>604.2515685621104</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1855.415041635285</v>
+        <v>1517.534328131392</v>
       </c>
       <c r="C29" t="n">
-        <v>1554.645202655269</v>
+        <v>1313.312948945596</v>
       </c>
       <c r="D29" t="n">
-        <v>1261.609736388989</v>
+        <v>1020.277482679317</v>
       </c>
       <c r="E29" t="n">
-        <v>981.6117786863508</v>
+        <v>710.0996203129146</v>
       </c>
       <c r="F29" t="n">
-        <v>657.1230027333816</v>
+        <v>385.6108443599452</v>
       </c>
       <c r="G29" t="n">
-        <v>336.4908577888233</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="H29" t="n">
-        <v>106.0930940933784</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I29" t="n">
         <v>64.97869941538691</v>
       </c>
       <c r="J29" t="n">
-        <v>220.0222462047609</v>
+        <v>220.0222462047604</v>
       </c>
       <c r="K29" t="n">
-        <v>594.5821749712313</v>
+        <v>594.5821749712308</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.227823135707</v>
+        <v>1107.227823135706</v>
       </c>
       <c r="M29" t="n">
         <v>1674.731905823947</v>
@@ -6490,25 +6490,25 @@
         <v>3248.934970769346</v>
       </c>
       <c r="S29" t="n">
-        <v>3177.674331925611</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="T29" t="n">
-        <v>3177.674331925611</v>
+        <v>3118.386990936378</v>
       </c>
       <c r="U29" t="n">
-        <v>3014.337260721294</v>
+        <v>2955.049919732061</v>
       </c>
       <c r="V29" t="n">
-        <v>2764.636113941865</v>
+        <v>2705.348772952632</v>
       </c>
       <c r="W29" t="n">
-        <v>2764.636113941865</v>
+        <v>2426.755400437973</v>
       </c>
       <c r="X29" t="n">
-        <v>2467.589171391975</v>
+        <v>2129.708457888082</v>
       </c>
       <c r="Y29" t="n">
-        <v>2163.504124829629</v>
+        <v>1825.623411325736</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J30" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K30" t="n">
-        <v>64.97869941538691</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L30" t="n">
-        <v>107.1974999857795</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M30" t="n">
-        <v>751.5711135031593</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N30" t="n">
-        <v>1424.390453187918</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O30" t="n">
-        <v>1956.500258631223</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P30" t="n">
-        <v>2374.633593833223</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q30" t="n">
         <v>2374.633593833223</v>
@@ -6624,13 +6624,13 @@
         <v>129.6554426406247</v>
       </c>
       <c r="K31" t="n">
-        <v>308.4393791188927</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L31" t="n">
-        <v>571.3007066288892</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M31" t="n">
-        <v>856.7699234500586</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N31" t="n">
         <v>1138.932449229471</v>
@@ -6639,7 +6639,7 @@
         <v>1399.968401789887</v>
       </c>
       <c r="P31" t="n">
-        <v>1617.055139249387</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q31" t="n">
         <v>1715.643935631293</v>
@@ -6660,10 +6660,10 @@
         <v>1067.557366480147</v>
       </c>
       <c r="W31" t="n">
-        <v>876.6326269283778</v>
+        <v>876.6326269283779</v>
       </c>
       <c r="X31" t="n">
-        <v>734.9579672284138</v>
+        <v>734.957967228414</v>
       </c>
       <c r="Y31" t="n">
         <v>604.2515685621103</v>
@@ -6709,7 +6709,7 @@
         <v>1107.227823135706</v>
       </c>
       <c r="M32" t="n">
-        <v>1674.731905823946</v>
+        <v>1674.731905823947</v>
       </c>
       <c r="N32" t="n">
         <v>2224.394316081128</v>
@@ -6718,31 +6718,31 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P32" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q32" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R32" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S32" t="n">
-        <v>3177.674331925611</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="T32" t="n">
-        <v>3047.126352092643</v>
+        <v>3118.386990936378</v>
       </c>
       <c r="U32" t="n">
-        <v>2883.789280888326</v>
+        <v>3118.386990936378</v>
       </c>
       <c r="V32" t="n">
-        <v>2634.088134108897</v>
+        <v>2868.68584415695</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.088134108897</v>
+        <v>2590.09247164229</v>
       </c>
       <c r="X32" t="n">
-        <v>2337.041191559007</v>
+        <v>2497.769076055739</v>
       </c>
       <c r="Y32" t="n">
         <v>2193.684029493393</v>
@@ -6779,25 +6779,25 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J33" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K33" t="n">
-        <v>64.97869941538691</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L33" t="n">
-        <v>562.7715504583953</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M33" t="n">
-        <v>1169.704448705159</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N33" t="n">
-        <v>1842.523788389918</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O33" t="n">
-        <v>2374.633593833223</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P33" t="n">
-        <v>2374.633593833223</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q33" t="n">
         <v>2374.633593833223</v>
@@ -6867,7 +6867,7 @@
         <v>571.3007066288892</v>
       </c>
       <c r="M34" t="n">
-        <v>856.7699234500586</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N34" t="n">
         <v>1138.932449229471</v>
@@ -6876,7 +6876,7 @@
         <v>1399.968401789887</v>
       </c>
       <c r="P34" t="n">
-        <v>1617.055139249387</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q34" t="n">
         <v>1715.643935631293</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1446.273689287658</v>
+        <v>1534.302689254655</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.503850307641</v>
+        <v>1233.532850274639</v>
       </c>
       <c r="D35" t="n">
-        <v>852.4683840413619</v>
+        <v>940.4973840083594</v>
       </c>
       <c r="E35" t="n">
-        <v>852.4683840413619</v>
+        <v>940.4973840083594</v>
       </c>
       <c r="F35" t="n">
-        <v>657.1230027333816</v>
+        <v>616.0086080553901</v>
       </c>
       <c r="G35" t="n">
-        <v>336.4908577888233</v>
+        <v>295.3764631108318</v>
       </c>
       <c r="H35" t="n">
-        <v>106.0930940933784</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I35" t="n">
         <v>64.97869941538691</v>
@@ -6964,25 +6964,25 @@
         <v>3248.934970769346</v>
       </c>
       <c r="S35" t="n">
-        <v>3177.674331925611</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="T35" t="n">
-        <v>3047.126352092644</v>
+        <v>3135.155352059641</v>
       </c>
       <c r="U35" t="n">
-        <v>2883.789280888326</v>
+        <v>2971.818280855324</v>
       </c>
       <c r="V35" t="n">
-        <v>2634.088134108898</v>
+        <v>2722.117134075895</v>
       </c>
       <c r="W35" t="n">
-        <v>2355.494761594238</v>
+        <v>2443.523761561235</v>
       </c>
       <c r="X35" t="n">
-        <v>2058.447819044347</v>
+        <v>2146.476819011345</v>
       </c>
       <c r="Y35" t="n">
-        <v>1754.362772482001</v>
+        <v>1842.391772448999</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1735.631805651507</v>
+        <v>861.3304287153846</v>
       </c>
       <c r="C36" t="n">
-        <v>1584.977575211599</v>
+        <v>710.6761982754768</v>
       </c>
       <c r="D36" t="n">
-        <v>1454.88860783308</v>
+        <v>580.5872308969572</v>
       </c>
       <c r="E36" t="n">
-        <v>1318.442116943967</v>
+        <v>444.1407400078448</v>
       </c>
       <c r="F36" t="n">
-        <v>1194.010310827099</v>
+        <v>319.7089338909767</v>
       </c>
       <c r="G36" t="n">
-        <v>1074.017345999696</v>
+        <v>199.7159690635734</v>
       </c>
       <c r="H36" t="n">
-        <v>986.3655898100004</v>
+        <v>112.0642128738779</v>
       </c>
       <c r="I36" t="n">
-        <v>939.2800763515094</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="J36" t="n">
-        <v>939.2800763515094</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K36" t="n">
-        <v>1269.599705442364</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L36" t="n">
-        <v>1767.392556485372</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M36" t="n">
-        <v>2411.766170002752</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N36" t="n">
-        <v>3084.585509687511</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O36" t="n">
-        <v>3248.934970769346</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P36" t="n">
-        <v>3248.934970769346</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q36" t="n">
-        <v>3248.934970769346</v>
+        <v>2374.633593833223</v>
       </c>
       <c r="R36" t="n">
-        <v>3229.168684219892</v>
+        <v>2354.867307283769</v>
       </c>
       <c r="S36" t="n">
-        <v>3095.479774144327</v>
+        <v>2221.178397208204</v>
       </c>
       <c r="T36" t="n">
-        <v>2918.765427253643</v>
+        <v>2044.46405031752</v>
       </c>
       <c r="U36" t="n">
-        <v>2708.706682162596</v>
+        <v>1834.405305226473</v>
       </c>
       <c r="V36" t="n">
-        <v>2486.166680533663</v>
+        <v>1611.86530359754</v>
       </c>
       <c r="W36" t="n">
-        <v>2256.04943466695</v>
+        <v>1381.748057730827</v>
       </c>
       <c r="X36" t="n">
-        <v>2066.742357016961</v>
+        <v>1192.440980080839</v>
       </c>
       <c r="Y36" t="n">
-        <v>1887.428140092469</v>
+        <v>1013.126763156346</v>
       </c>
     </row>
     <row r="37">
@@ -7098,13 +7098,13 @@
         <v>129.6554426406247</v>
       </c>
       <c r="K37" t="n">
-        <v>308.4393791188927</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L37" t="n">
-        <v>571.3007066288892</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M37" t="n">
-        <v>856.7699234500586</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N37" t="n">
         <v>1138.932449229471</v>
@@ -7113,7 +7113,7 @@
         <v>1399.968401789887</v>
       </c>
       <c r="P37" t="n">
-        <v>1617.055139249387</v>
+        <v>1617.055139249388</v>
       </c>
       <c r="Q37" t="n">
         <v>1715.643935631293</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1575.417083932646</v>
+        <v>1740.158740324943</v>
       </c>
       <c r="C38" t="n">
-        <v>1274.64724495263</v>
+        <v>1439.388901344926</v>
       </c>
       <c r="D38" t="n">
-        <v>981.6117786863508</v>
+        <v>1146.353435078647</v>
       </c>
       <c r="E38" t="n">
-        <v>981.6117786863508</v>
+        <v>836.1755727122447</v>
       </c>
       <c r="F38" t="n">
-        <v>657.1230027333816</v>
+        <v>511.6867967592754</v>
       </c>
       <c r="G38" t="n">
-        <v>336.4908577888233</v>
+        <v>191.0546518147171</v>
       </c>
       <c r="H38" t="n">
-        <v>106.0930940933784</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I38" t="n">
         <v>64.97869941538691</v>
@@ -7192,34 +7192,34 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P38" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q38" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R38" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="S38" t="n">
         <v>3177.674331925611</v>
       </c>
       <c r="T38" t="n">
-        <v>3047.126352092643</v>
+        <v>3177.674331925611</v>
       </c>
       <c r="U38" t="n">
-        <v>2883.789280888326</v>
+        <v>3177.674331925611</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.231528753886</v>
+        <v>2927.973185146182</v>
       </c>
       <c r="W38" t="n">
-        <v>2484.638156239227</v>
+        <v>2649.379812631523</v>
       </c>
       <c r="X38" t="n">
-        <v>2187.591213689336</v>
+        <v>2352.332870081632</v>
       </c>
       <c r="Y38" t="n">
-        <v>1883.50616712699</v>
+        <v>2048.247823519287</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>184.2841421538877</v>
       </c>
       <c r="K39" t="n">
-        <v>282.2239886275302</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L39" t="n">
-        <v>780.0168396705386</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M39" t="n">
-        <v>1424.390453187918</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N39" t="n">
-        <v>1424.390453187918</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O39" t="n">
-        <v>1956.500258631223</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P39" t="n">
-        <v>2374.633593833223</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q39" t="n">
         <v>2374.633593833223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2044.740247525915</v>
+        <v>511.4492123878619</v>
       </c>
       <c r="C40" t="n">
-        <v>1966.940792108958</v>
+        <v>433.6497569709041</v>
       </c>
       <c r="D40" t="n">
-        <v>1903.713341528525</v>
+        <v>370.4223063904718</v>
       </c>
       <c r="E40" t="n">
-        <v>1840.560191904781</v>
+        <v>307.2691567667273</v>
       </c>
       <c r="F40" t="n">
-        <v>1775.639919634807</v>
+        <v>242.3488844967532</v>
       </c>
       <c r="G40" t="n">
-        <v>1699.847575645218</v>
+        <v>166.5565405071644</v>
       </c>
       <c r="H40" t="n">
-        <v>1637.272999407825</v>
+        <v>103.9819642697717</v>
       </c>
       <c r="I40" t="n">
-        <v>1598.26973455344</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="J40" t="n">
-        <v>1662.946477778677</v>
+        <v>129.6554426406247</v>
       </c>
       <c r="K40" t="n">
-        <v>1841.730414256945</v>
+        <v>308.4393791188928</v>
       </c>
       <c r="L40" t="n">
-        <v>2104.591741766942</v>
+        <v>571.3007066288893</v>
       </c>
       <c r="M40" t="n">
-        <v>2390.060958588111</v>
+        <v>856.7699234500587</v>
       </c>
       <c r="N40" t="n">
-        <v>2672.223484367523</v>
+        <v>1138.932449229471</v>
       </c>
       <c r="O40" t="n">
-        <v>2933.25943692794</v>
+        <v>1399.968401789887</v>
       </c>
       <c r="P40" t="n">
-        <v>3150.34617438744</v>
+        <v>1617.055139249387</v>
       </c>
       <c r="Q40" t="n">
-        <v>3248.934970769345</v>
+        <v>1715.643935631293</v>
       </c>
       <c r="R40" t="n">
-        <v>3219.959738557997</v>
+        <v>1686.668703419944</v>
       </c>
       <c r="S40" t="n">
-        <v>3110.526070476969</v>
+        <v>1577.235035338916</v>
       </c>
       <c r="T40" t="n">
-        <v>2967.452156390792</v>
+        <v>1434.161121252739</v>
       </c>
       <c r="U40" t="n">
-        <v>2774.422084280323</v>
+        <v>1241.13104914227</v>
       </c>
       <c r="V40" t="n">
-        <v>2600.848401618201</v>
+        <v>1067.557366480147</v>
       </c>
       <c r="W40" t="n">
-        <v>2409.923662066431</v>
+        <v>876.6326269283779</v>
       </c>
       <c r="X40" t="n">
-        <v>2268.249002366467</v>
+        <v>734.957967228414</v>
       </c>
       <c r="Y40" t="n">
-        <v>2137.542603700164</v>
+        <v>604.2515685621103</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1733.955647673477</v>
+        <v>1661.35373013545</v>
       </c>
       <c r="C41" t="n">
-        <v>1340.780146176407</v>
+        <v>1661.35373013545</v>
       </c>
       <c r="D41" t="n">
-        <v>1340.780146176407</v>
+        <v>1275.912601352118</v>
       </c>
       <c r="E41" t="n">
-        <v>938.1966212929515</v>
+        <v>894.9109453470204</v>
       </c>
       <c r="F41" t="n">
-        <v>521.3021828229292</v>
+        <v>478.0165068769982</v>
       </c>
       <c r="G41" t="n">
-        <v>521.3021828229292</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="H41" t="n">
-        <v>198.4987566104314</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I41" t="n">
         <v>64.97869941538691</v>
@@ -7414,13 +7414,13 @@
         <v>220.0222462047604</v>
       </c>
       <c r="K41" t="n">
-        <v>594.5821749712306</v>
+        <v>594.5821749712304</v>
       </c>
       <c r="L41" t="n">
         <v>1107.227823135706</v>
       </c>
       <c r="M41" t="n">
-        <v>1674.731905823947</v>
+        <v>1674.731905823946</v>
       </c>
       <c r="N41" t="n">
         <v>2224.394316081128</v>
@@ -7429,34 +7429,34 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q41" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R41" t="n">
         <v>3218.790825024902</v>
       </c>
       <c r="S41" t="n">
-        <v>3055.124523664114</v>
+        <v>3218.790825024902</v>
       </c>
       <c r="T41" t="n">
-        <v>2832.170881314094</v>
+        <v>3218.790825024902</v>
       </c>
       <c r="U41" t="n">
-        <v>2832.170881314094</v>
+        <v>3218.790825024902</v>
       </c>
       <c r="V41" t="n">
-        <v>2832.170881314094</v>
+        <v>3218.790825024902</v>
       </c>
       <c r="W41" t="n">
-        <v>2832.170881314094</v>
+        <v>2847.791789993189</v>
       </c>
       <c r="X41" t="n">
-        <v>2442.71827624715</v>
+        <v>2458.339184926246</v>
       </c>
       <c r="Y41" t="n">
-        <v>2046.227567167751</v>
+        <v>2061.848475846847</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>64.97869941538691</v>
       </c>
       <c r="J42" t="n">
-        <v>64.97869941538691</v>
+        <v>184.2841421538877</v>
       </c>
       <c r="K42" t="n">
-        <v>395.2983285062415</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L42" t="n">
-        <v>893.09117954925</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M42" t="n">
-        <v>893.09117954925</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N42" t="n">
         <v>1181.661443386968</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2321.804912222635</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="C43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="D43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="E43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="F43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="G43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="H43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="J43" t="n">
-        <v>2296.914006609422</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="K43" t="n">
-        <v>2385.131153254727</v>
+        <v>153.1958460606914</v>
       </c>
       <c r="L43" t="n">
-        <v>2557.42569093176</v>
+        <v>325.4903837377243</v>
       </c>
       <c r="M43" t="n">
-        <v>2752.328117919966</v>
+        <v>520.3928107259302</v>
       </c>
       <c r="N43" t="n">
-        <v>2943.923853866414</v>
+        <v>711.9885466723787</v>
       </c>
       <c r="O43" t="n">
-        <v>3114.393016593867</v>
+        <v>882.4577093998314</v>
       </c>
       <c r="P43" t="n">
-        <v>3240.912964220404</v>
+        <v>1008.977657026368</v>
       </c>
       <c r="Q43" t="n">
-        <v>3248.934970769345</v>
+        <v>1016.99966357531</v>
       </c>
       <c r="R43" t="n">
-        <v>3248.934970769345</v>
+        <v>1016.99966357531</v>
       </c>
       <c r="S43" t="n">
-        <v>3248.934970769345</v>
+        <v>815.160332977229</v>
       </c>
       <c r="T43" t="n">
-        <v>3013.455394166116</v>
+        <v>579.6807563739993</v>
       </c>
       <c r="U43" t="n">
-        <v>3013.455394166116</v>
+        <v>579.6807563739993</v>
       </c>
       <c r="V43" t="n">
-        <v>3013.455394166116</v>
+        <v>579.6807563739993</v>
       </c>
       <c r="W43" t="n">
-        <v>2730.124992097293</v>
+        <v>579.6807563739993</v>
       </c>
       <c r="X43" t="n">
-        <v>2730.124992097293</v>
+        <v>345.6004341569824</v>
       </c>
       <c r="Y43" t="n">
-        <v>2507.012930913937</v>
+        <v>122.4883729736257</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1331.372122790021</v>
+        <v>1663.073293049266</v>
       </c>
       <c r="C44" t="n">
-        <v>938.1966212929515</v>
+        <v>1269.897791552197</v>
       </c>
       <c r="D44" t="n">
-        <v>938.1966212929515</v>
+        <v>884.4566627688646</v>
       </c>
       <c r="E44" t="n">
-        <v>938.1966212929515</v>
+        <v>481.8731378854092</v>
       </c>
       <c r="F44" t="n">
-        <v>521.3021828229292</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="G44" t="n">
-        <v>521.3021828229292</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="H44" t="n">
-        <v>198.4987566104314</v>
+        <v>64.97869941538691</v>
       </c>
       <c r="I44" t="n">
         <v>64.97869941538691</v>
@@ -7651,13 +7651,13 @@
         <v>220.0222462047604</v>
       </c>
       <c r="K44" t="n">
-        <v>594.5821749712306</v>
+        <v>594.5821749712308</v>
       </c>
       <c r="L44" t="n">
         <v>1107.227823135706</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.731905823946</v>
+        <v>1674.731905823947</v>
       </c>
       <c r="N44" t="n">
         <v>2224.394316081128</v>
@@ -7666,10 +7666,10 @@
         <v>2685.067316215457</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.864937229463</v>
+        <v>3050.864937229464</v>
       </c>
       <c r="Q44" t="n">
-        <v>3248.934970769345</v>
+        <v>3248.934970769346</v>
       </c>
       <c r="R44" t="n">
         <v>3218.790825024902</v>
@@ -7678,22 +7678,22 @@
         <v>3218.790825024902</v>
       </c>
       <c r="T44" t="n">
-        <v>2995.837182674881</v>
+        <v>2995.837182674882</v>
       </c>
       <c r="U44" t="n">
-        <v>2740.09444895351</v>
+        <v>2740.094448953511</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.987639657029</v>
+        <v>2453.020643827606</v>
       </c>
       <c r="W44" t="n">
-        <v>2026.988604625316</v>
+        <v>2453.020643827606</v>
       </c>
       <c r="X44" t="n">
-        <v>1637.535999558373</v>
+        <v>2063.568038760663</v>
       </c>
       <c r="Y44" t="n">
-        <v>1331.372122790021</v>
+        <v>2063.568038760663</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>184.2841421538877</v>
       </c>
       <c r="K45" t="n">
-        <v>184.2841421538877</v>
+        <v>514.6037712447423</v>
       </c>
       <c r="L45" t="n">
-        <v>682.0769931968961</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="M45" t="n">
-        <v>751.5711135031593</v>
+        <v>1012.396622287751</v>
       </c>
       <c r="N45" t="n">
-        <v>1424.390453187918</v>
+        <v>1181.661443386968</v>
       </c>
       <c r="O45" t="n">
-        <v>1956.500258631223</v>
+        <v>1713.771248830272</v>
       </c>
       <c r="P45" t="n">
-        <v>2374.633593833223</v>
+        <v>2131.904584032272</v>
       </c>
       <c r="Q45" t="n">
         <v>2374.633593833223</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.5026407090557</v>
+        <v>597.7113226669916</v>
       </c>
       <c r="C46" t="n">
-        <v>390.5026407090557</v>
+        <v>427.5062047329808</v>
       </c>
       <c r="D46" t="n">
-        <v>390.5026407090557</v>
+        <v>271.8730916354955</v>
       </c>
       <c r="E46" t="n">
-        <v>390.5026407090557</v>
+        <v>271.8730916354955</v>
       </c>
       <c r="F46" t="n">
-        <v>233.1767059220286</v>
+        <v>114.5471568484685</v>
       </c>
       <c r="G46" t="n">
         <v>64.97869941538691</v>
@@ -7809,16 +7809,16 @@
         <v>64.97869941538691</v>
       </c>
       <c r="K46" t="n">
-        <v>153.1958460606913</v>
+        <v>153.1958460606914</v>
       </c>
       <c r="L46" t="n">
-        <v>325.4903837377242</v>
+        <v>325.4903837377243</v>
       </c>
       <c r="M46" t="n">
-        <v>520.3928107259301</v>
+        <v>520.3928107259302</v>
       </c>
       <c r="N46" t="n">
-        <v>711.9885466723786</v>
+        <v>711.9885466723787</v>
       </c>
       <c r="O46" t="n">
         <v>882.4577093998314</v>
@@ -7851,7 +7851,7 @@
         <v>782.9193413582929</v>
       </c>
       <c r="Y46" t="n">
-        <v>559.8072801749362</v>
+        <v>782.9193413582929</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>599.6082218521052</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>340.274574506989</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>159.9343611255894</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015362</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8458,22 +8458,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>653.4271014745298</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>176.1461757257091</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8543,7 +8543,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>76.19146691032986</v>
       </c>
       <c r="K12" t="n">
-        <v>78.90957873875939</v>
+        <v>78.90957873875931</v>
       </c>
       <c r="L12" t="n">
-        <v>75.68987701379186</v>
+        <v>540.6920343596423</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4537863499403</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8786,10 +8786,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>74.44501483385781</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>82.53975088716632</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>76.19146691032991</v>
+        <v>153.5003103150657</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>78.90957873875931</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>376.2990086613266</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>76.940566108764</v>
       </c>
       <c r="P15" t="n">
-        <v>74.44501483385791</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.53975088716639</v>
+        <v>82.53975088716632</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365664</v>
       </c>
       <c r="N18" t="n">
-        <v>68.15860934487364</v>
+        <v>484.3139940925176</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>137.4045961695525</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>82.53975088716635</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>78.90957873875939</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>540.6920343596425</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365665</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>239.1331761117593</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>74.44501483385791</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>78.90957873875939</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N24" t="n">
-        <v>68.15860934487364</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>301.9794369600384</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,13 +9962,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N27" t="n">
-        <v>68.15860934487364</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O27" t="n">
-        <v>255.0278951629486</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>78.90957873875939</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>118.3351301151985</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>78.90957873875939</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>688.6809951362463</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>74.44501483385791</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O36" t="n">
-        <v>242.9501227570821</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>74.44501483385791</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,16 +10904,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>177.8387165909236</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N39" t="n">
-        <v>68.15860934487364</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294515</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>76.19146691032991</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>75.61746155365671</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N42" t="n">
-        <v>359.6437243324672</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11378,16 +11378,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>78.90957873875939</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>145.8135426710943</v>
+        <v>75.61746155365667</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>239.1331761117594</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.53975088716639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>297.7621405902163</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>137.1659038510622</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>228.0937860584905</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.8342583827865</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.70325073121162</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>133.8838483445549</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>93.18059761334382</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>301.0441960967225</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>206.8342583827875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4173549205537</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>228.0937860584905</v>
       </c>
       <c r="I17" t="n">
-        <v>40.70325073121162</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.807438789513</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>321.2438881934396</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.54803245529739</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>26.02020863736888</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>161.7037004922744</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>247.2041353116344</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>43.13612379254079</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>290.1051116036165</v>
+        <v>117.1758766743457</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.54803245529737</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>144.8229328376614</v>
+        <v>247.2041353116344</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>307.0760837427384</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.54803245529735</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>129.2425000346377</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>161.7037004922744</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>32.7305607278563</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>127.8519606985392</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>95.58297519627828</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>29.87810561712627</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>228.0937860584904</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.54803245529735</v>
       </c>
       <c r="T29" t="n">
-        <v>129.2425000346377</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>275.807438789513</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.54803245529735</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>161.7037004922744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>275.807438789513</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>202.6763114937056</v>
       </c>
       <c r="Y32" t="n">
-        <v>159.1206056517651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25165,7 +25165,7 @@
         <v>307.0760837427384</v>
       </c>
       <c r="F35" t="n">
-        <v>127.8519606985391</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.54803245529735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.60067751203013</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>307.0760837427384</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>103.2785931831536</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>40.70325073121158</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>129.2425000346377</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>161.7037004922744</v>
       </c>
       <c r="V38" t="n">
-        <v>127.8519606985394</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.34059795495074</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>21.36605018957437</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.9074293869951</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>319.5753919503729</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>132.184856623094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>162.0296383471798</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.7241059265202</v>
       </c>
       <c r="U41" t="n">
         <v>253.1853063841568</v>
@@ -25690,7 +25690,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>126.4213616817318</v>
       </c>
       <c r="C43" t="n">
-        <v>143.8610701975899</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25809,7 +25809,7 @@
         <v>130.0948380977234</v>
       </c>
       <c r="J43" t="n">
-        <v>26.15156223002611</v>
+        <v>26.15156223002609</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>120.167085781118</v>
       </c>
       <c r="S43" t="n">
-        <v>199.8209372921</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>408.9074293869951</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>319.5753919503729</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>132.184856623094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>54.48267412887088</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.42356398793629</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.74434543316659</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.4432535828246</v>
       </c>
       <c r="H46" t="n">
         <v>153.4304363669012</v>
@@ -26046,7 +26046,7 @@
         <v>130.0948380977234</v>
       </c>
       <c r="J46" t="n">
-        <v>26.15156223002611</v>
+        <v>26.15156223002609</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681971.3119297073</v>
+        <v>681971.3119297074</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681971.3119297073</v>
+        <v>681971.3119297074</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681971.3119297074</v>
+        <v>681971.3119297073</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681971.3119297073</v>
+        <v>681971.3119297074</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681971.3119297073</v>
+        <v>681971.3119297074</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534406.5210491219</v>
+        <v>534406.5210491216</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534406.5210491219</v>
+        <v>534406.5210491217</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>613129.4055174134</v>
       </c>
       <c r="C2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174134</v>
       </c>
       <c r="D2" t="n">
         <v>613129.4055174133</v>
@@ -26328,10 +26328,10 @@
         <v>583702.1740305166</v>
       </c>
       <c r="G2" t="n">
-        <v>583702.1740305166</v>
+        <v>583702.1740305165</v>
       </c>
       <c r="H2" t="n">
-        <v>583702.1740305168</v>
+        <v>583702.1740305169</v>
       </c>
       <c r="I2" t="n">
         <v>583702.174030517</v>
@@ -26340,16 +26340,16 @@
         <v>583702.1740305166</v>
       </c>
       <c r="K2" t="n">
-        <v>583702.1740305165</v>
+        <v>583702.1740305168</v>
       </c>
       <c r="L2" t="n">
-        <v>583702.1740305166</v>
+        <v>583702.1740305168</v>
       </c>
       <c r="M2" t="n">
         <v>583702.1740305166</v>
       </c>
       <c r="N2" t="n">
-        <v>583702.1740305169</v>
+        <v>583702.1740305168</v>
       </c>
       <c r="O2" t="n">
         <v>444335.427087741</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>163838.4870838663</v>
+        <v>163838.4870838666</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55029.63009908761</v>
+        <v>55029.63009908763</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>158301.9666252763</v>
       </c>
       <c r="O4" t="n">
-        <v>64500.71709415848</v>
+        <v>64500.71709415849</v>
       </c>
       <c r="P4" t="n">
         <v>64500.71709415849</v>
@@ -26478,34 +26478,34 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="F5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="G5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="H5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="I5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="J5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="K5" t="n">
         <v>57745.36510124493</v>
       </c>
       <c r="L5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="M5" t="n">
         <v>57745.36510124493</v>
       </c>
       <c r="N5" t="n">
-        <v>57745.36510124492</v>
+        <v>57745.36510124493</v>
       </c>
       <c r="O5" t="n">
         <v>50054.59797552026</v>
@@ -26524,46 +26524,46 @@
         <v>133772.246943705</v>
       </c>
       <c r="C6" t="n">
-        <v>331968.0529354501</v>
+        <v>331968.05293545</v>
       </c>
       <c r="D6" t="n">
-        <v>331968.0529354499</v>
+        <v>331968.0529354498</v>
       </c>
       <c r="E6" t="n">
-        <v>203816.3552201289</v>
+        <v>203729.8045392848</v>
       </c>
       <c r="F6" t="n">
-        <v>367654.8423039954</v>
+        <v>367568.2916231516</v>
       </c>
       <c r="G6" t="n">
-        <v>367654.8423039954</v>
+        <v>367568.2916231515</v>
       </c>
       <c r="H6" t="n">
-        <v>367654.8423039955</v>
+        <v>367568.2916231518</v>
       </c>
       <c r="I6" t="n">
-        <v>367654.8423039957</v>
+        <v>367568.2916231519</v>
       </c>
       <c r="J6" t="n">
-        <v>139730.123224886</v>
+        <v>139643.5725440422</v>
       </c>
       <c r="K6" t="n">
-        <v>367654.8423039953</v>
+        <v>367568.2916231516</v>
       </c>
       <c r="L6" t="n">
-        <v>367654.8423039954</v>
+        <v>367568.2916231516</v>
       </c>
       <c r="M6" t="n">
-        <v>312625.2122049078</v>
+        <v>312538.6615240639</v>
       </c>
       <c r="N6" t="n">
-        <v>367654.8423039956</v>
+        <v>367568.2916231516</v>
       </c>
       <c r="O6" t="n">
-        <v>329780.1120180623</v>
+        <v>329283.6591403279</v>
       </c>
       <c r="P6" t="n">
-        <v>329780.1120180621</v>
+        <v>329283.6591403278</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>30.77001925808294</v>
+        <v>30.77001925808317</v>
       </c>
       <c r="F3" t="n">
-        <v>30.77001925808294</v>
+        <v>30.77001925808316</v>
       </c>
       <c r="G3" t="n">
-        <v>30.77001925808294</v>
+        <v>30.77001925808307</v>
       </c>
       <c r="H3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808306</v>
       </c>
       <c r="I3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="J3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="K3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="L3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="M3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="N3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="O3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
       <c r="P3" t="n">
-        <v>30.77001925808293</v>
+        <v>30.77001925808302</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923366</v>
       </c>
       <c r="F4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923366</v>
       </c>
       <c r="G4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="H4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="I4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="J4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="K4" t="n">
         <v>812.2337426923365</v>
       </c>
       <c r="L4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="M4" t="n">
         <v>812.2337426923365</v>
       </c>
       <c r="N4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="O4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
       <c r="P4" t="n">
-        <v>812.2337426923364</v>
+        <v>812.2337426923365</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>30.77001925808294</v>
+        <v>30.77001925808317</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>220.8216164230413</v>
+        <v>220.8216164230415</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>220.8216164230414</v>
+        <v>220.8216164230415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>220.8216164230413</v>
+        <v>220.8216164230415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>367.1612399539924</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.985234292362804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.7967036975784</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27587,7 +27587,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>33.08752862872035</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27599,7 +27599,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.80951391583272</v>
       </c>
       <c r="C5" t="n">
-        <v>140.824597792346</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27627,7 +27627,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>224.7058038219689</v>
+        <v>243.3888954030972</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>51.31806997748357</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>90.67655857844227</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27921,7 +27921,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>9.188072053037729</v>
       </c>
       <c r="X10" t="n">
-        <v>140.3218891398353</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699934</v>
       </c>
       <c r="S11" t="n">
         <v>91.4816058918824</v>
@@ -28374,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699934</v>
       </c>
       <c r="S14" t="n">
         <v>91.4816058918824</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699936</v>
       </c>
       <c r="S17" t="n">
         <v>91.4816058918824</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699937</v>
       </c>
       <c r="S20" t="n">
         <v>91.4816058918824</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S23" t="n">
         <v>91.4816058918824</v>
@@ -29222,7 +29222,7 @@
         <v>91.4816058918824</v>
       </c>
       <c r="K25" t="n">
-        <v>91.48160589188302</v>
+        <v>91.4816058918824</v>
       </c>
       <c r="L25" t="n">
         <v>91.4816058918824</v>
@@ -29231,7 +29231,7 @@
         <v>91.4816058918824</v>
       </c>
       <c r="N25" t="n">
-        <v>91.4816058918824</v>
+        <v>91.48160589188288</v>
       </c>
       <c r="O25" t="n">
         <v>91.4816058918824</v>
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S26" t="n">
         <v>91.48160589188242</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S29" t="n">
         <v>91.48160589188242</v>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S32" t="n">
         <v>91.48160589188242</v>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S35" t="n">
         <v>91.48160589188242</v>
@@ -30182,7 +30182,7 @@
         <v>91.48160589188242</v>
       </c>
       <c r="O37" t="n">
-        <v>91.48160589188228</v>
+        <v>91.48160589188242</v>
       </c>
       <c r="P37" t="n">
         <v>91.48160589188242</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>29.8427042869994</v>
+        <v>29.84270428699938</v>
       </c>
       <c r="S38" t="n">
         <v>91.48160589188242</v>
@@ -30416,7 +30416,7 @@
         <v>91.48160589188242</v>
       </c>
       <c r="N40" t="n">
-        <v>91.48160589188242</v>
+        <v>91.4816058918822</v>
       </c>
       <c r="O40" t="n">
         <v>91.48160589188242</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1236985698817404</v>
+        <v>0.1236985698817413</v>
       </c>
       <c r="H11" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801383</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7688891153658</v>
+        <v>4.768889115365836</v>
       </c>
       <c r="J11" t="n">
-        <v>10.49876149550037</v>
+        <v>10.49876149550045</v>
       </c>
       <c r="K11" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859456</v>
       </c>
       <c r="L11" t="n">
-        <v>19.52056206661276</v>
+        <v>19.5205620666129</v>
       </c>
       <c r="M11" t="n">
-        <v>21.72038650874716</v>
+        <v>21.72038650874732</v>
       </c>
       <c r="N11" t="n">
-        <v>22.07184507042366</v>
+        <v>22.07184507042382</v>
       </c>
       <c r="O11" t="n">
-        <v>20.8418174161621</v>
+        <v>20.84181741616225</v>
       </c>
       <c r="P11" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220676</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.3580539383168</v>
+        <v>13.3580539383169</v>
       </c>
       <c r="R11" t="n">
-        <v>7.77028029033388</v>
+        <v>7.770280290333938</v>
       </c>
       <c r="S11" t="n">
-        <v>2.818781161180162</v>
+        <v>2.818781161180182</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5414904896573187</v>
+        <v>0.5414904896573227</v>
       </c>
       <c r="U11" t="n">
-        <v>0.009895885590539227</v>
+        <v>0.0098958855905393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06618456972493311</v>
+        <v>0.06618456972493361</v>
       </c>
       <c r="H12" t="n">
-        <v>0.639203607606591</v>
+        <v>0.6392036076065957</v>
       </c>
       <c r="I12" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301442</v>
       </c>
       <c r="J12" t="n">
-        <v>6.252990423003441</v>
+        <v>6.252990423003487</v>
       </c>
       <c r="K12" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457404</v>
       </c>
       <c r="L12" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312648</v>
       </c>
       <c r="M12" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565532</v>
       </c>
       <c r="N12" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929315</v>
       </c>
       <c r="O12" t="n">
-        <v>15.74699278012477</v>
+        <v>15.74699278012488</v>
       </c>
       <c r="P12" t="n">
-        <v>12.63834998545675</v>
+        <v>12.63834998545684</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.448402268747603</v>
+        <v>8.448402268747666</v>
       </c>
       <c r="R12" t="n">
-        <v>4.109248986956814</v>
+        <v>4.109248986956844</v>
       </c>
       <c r="S12" t="n">
-        <v>1.229349354320577</v>
+        <v>1.229349354320586</v>
       </c>
       <c r="T12" t="n">
-        <v>0.266770261303568</v>
+        <v>0.26677026130357</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004354248008219286</v>
+        <v>0.004354248008219318</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05548691997359218</v>
+        <v>0.05548691997359259</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4933291612197563</v>
+        <v>0.4933291612197599</v>
       </c>
       <c r="I13" t="n">
-        <v>1.668643011569482</v>
+        <v>1.668643011569494</v>
       </c>
       <c r="J13" t="n">
-        <v>3.922925242132967</v>
+        <v>3.922925242132996</v>
       </c>
       <c r="K13" t="n">
-        <v>6.446571247840981</v>
+        <v>6.446571247841028</v>
       </c>
       <c r="L13" t="n">
-        <v>8.249391720437515</v>
+        <v>8.249391720437576</v>
       </c>
       <c r="M13" t="n">
-        <v>8.697826919133181</v>
+        <v>8.697826919133245</v>
       </c>
       <c r="N13" t="n">
-        <v>8.491012035595253</v>
+        <v>8.491012035595315</v>
       </c>
       <c r="O13" t="n">
-        <v>7.842823924994651</v>
+        <v>7.842823924994708</v>
       </c>
       <c r="P13" t="n">
-        <v>6.710890757533364</v>
+        <v>6.710890757533414</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970558</v>
       </c>
       <c r="R13" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630808</v>
       </c>
       <c r="S13" t="n">
-        <v>0.966985687176147</v>
+        <v>0.9669856871761542</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2370804762508029</v>
+        <v>0.2370804762508046</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00302655927128685</v>
+        <v>0.003026559271286872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1236985698817404</v>
+        <v>0.1236985698817413</v>
       </c>
       <c r="H14" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801383</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7688891153658</v>
+        <v>4.768889115365834</v>
       </c>
       <c r="J14" t="n">
-        <v>10.49876149550037</v>
+        <v>10.49876149550045</v>
       </c>
       <c r="K14" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859456</v>
       </c>
       <c r="L14" t="n">
-        <v>19.52056206661276</v>
+        <v>19.5205620666129</v>
       </c>
       <c r="M14" t="n">
-        <v>21.72038650874716</v>
+        <v>21.72038650874731</v>
       </c>
       <c r="N14" t="n">
-        <v>22.07184507042366</v>
+        <v>22.07184507042381</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8418174161621</v>
+        <v>20.84181741616225</v>
       </c>
       <c r="P14" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220676</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831689</v>
       </c>
       <c r="R14" t="n">
-        <v>7.77028029033388</v>
+        <v>7.770280290333936</v>
       </c>
       <c r="S14" t="n">
-        <v>2.818781161180162</v>
+        <v>2.818781161180182</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5414904896573187</v>
+        <v>0.5414904896573226</v>
       </c>
       <c r="U14" t="n">
-        <v>0.009895885590539227</v>
+        <v>0.009895885590539298</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06618456972493311</v>
+        <v>0.0661845697249336</v>
       </c>
       <c r="H15" t="n">
-        <v>0.639203607606591</v>
+        <v>0.6392036076065956</v>
       </c>
       <c r="I15" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301442</v>
       </c>
       <c r="J15" t="n">
-        <v>6.252990423003441</v>
+        <v>6.252990423003485</v>
       </c>
       <c r="K15" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457404</v>
       </c>
       <c r="L15" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312648</v>
       </c>
       <c r="M15" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565532</v>
       </c>
       <c r="N15" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929314</v>
       </c>
       <c r="O15" t="n">
-        <v>15.74699278012477</v>
+        <v>15.74699278012488</v>
       </c>
       <c r="P15" t="n">
-        <v>12.63834998545675</v>
+        <v>12.63834998545684</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.448402268747603</v>
+        <v>8.448402268747664</v>
       </c>
       <c r="R15" t="n">
-        <v>4.109248986956814</v>
+        <v>4.109248986956843</v>
       </c>
       <c r="S15" t="n">
-        <v>1.229349354320577</v>
+        <v>1.229349354320586</v>
       </c>
       <c r="T15" t="n">
-        <v>0.266770261303568</v>
+        <v>0.26677026130357</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004354248008219286</v>
+        <v>0.004354248008219317</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05548691997359218</v>
+        <v>0.05548691997359258</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4933291612197563</v>
+        <v>0.4933291612197598</v>
       </c>
       <c r="I16" t="n">
-        <v>1.668643011569482</v>
+        <v>1.668643011569494</v>
       </c>
       <c r="J16" t="n">
-        <v>3.922925242132967</v>
+        <v>3.922925242132995</v>
       </c>
       <c r="K16" t="n">
-        <v>6.446571247840981</v>
+        <v>6.446571247841027</v>
       </c>
       <c r="L16" t="n">
-        <v>8.249391720437515</v>
+        <v>8.249391720437574</v>
       </c>
       <c r="M16" t="n">
-        <v>8.697826919133181</v>
+        <v>8.697826919133243</v>
       </c>
       <c r="N16" t="n">
-        <v>8.491012035595253</v>
+        <v>8.491012035595313</v>
       </c>
       <c r="O16" t="n">
-        <v>7.842823924994651</v>
+        <v>7.842823924994707</v>
       </c>
       <c r="P16" t="n">
-        <v>6.710890757533364</v>
+        <v>6.710890757533412</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970557</v>
       </c>
       <c r="R16" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630808</v>
       </c>
       <c r="S16" t="n">
-        <v>0.966985687176147</v>
+        <v>0.966985687176154</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2370804762508029</v>
+        <v>0.2370804762508046</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00302655927128685</v>
+        <v>0.003026559271286871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1236985698817404</v>
+        <v>0.1236985698817409</v>
       </c>
       <c r="H17" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801379</v>
       </c>
       <c r="I17" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365821</v>
       </c>
       <c r="J17" t="n">
-        <v>10.49876149550037</v>
+        <v>10.49876149550042</v>
       </c>
       <c r="K17" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859451</v>
       </c>
       <c r="L17" t="n">
-        <v>19.52056206661276</v>
+        <v>19.52056206661285</v>
       </c>
       <c r="M17" t="n">
-        <v>21.72038650874716</v>
+        <v>21.72038650874725</v>
       </c>
       <c r="N17" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042375</v>
       </c>
       <c r="O17" t="n">
-        <v>20.8418174161621</v>
+        <v>20.84181741616219</v>
       </c>
       <c r="P17" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220671</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831686</v>
       </c>
       <c r="R17" t="n">
-        <v>7.770280290333879</v>
+        <v>7.770280290333914</v>
       </c>
       <c r="S17" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180174</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5414904896573187</v>
+        <v>0.5414904896573212</v>
       </c>
       <c r="U17" t="n">
-        <v>0.009895885590539227</v>
+        <v>0.00989588559053927</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06618456972493311</v>
+        <v>0.0661845697249334</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065938</v>
       </c>
       <c r="I18" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301436</v>
       </c>
       <c r="J18" t="n">
-        <v>6.25299042300344</v>
+        <v>6.252990423003468</v>
       </c>
       <c r="K18" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457401</v>
       </c>
       <c r="L18" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312644</v>
       </c>
       <c r="M18" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565527</v>
       </c>
       <c r="N18" t="n">
-        <v>17.21350350929302</v>
+        <v>17.2135035092931</v>
       </c>
       <c r="O18" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012483</v>
       </c>
       <c r="P18" t="n">
-        <v>12.63834998545675</v>
+        <v>12.6383499854568</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747641</v>
       </c>
       <c r="R18" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956832</v>
       </c>
       <c r="S18" t="n">
-        <v>1.229349354320577</v>
+        <v>1.229349354320582</v>
       </c>
       <c r="T18" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035692</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004354248008219285</v>
+        <v>0.004354248008219305</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359242</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197584</v>
       </c>
       <c r="I19" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569489</v>
       </c>
       <c r="J19" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132984</v>
       </c>
       <c r="K19" t="n">
-        <v>6.44657124784098</v>
+        <v>6.44657124784101</v>
       </c>
       <c r="L19" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437551</v>
       </c>
       <c r="M19" t="n">
-        <v>8.697826919133179</v>
+        <v>8.697826919133218</v>
       </c>
       <c r="N19" t="n">
-        <v>8.491012035595253</v>
+        <v>8.49101203559529</v>
       </c>
       <c r="O19" t="n">
-        <v>7.84282392499465</v>
+        <v>7.842823924994685</v>
       </c>
       <c r="P19" t="n">
-        <v>6.710890757533363</v>
+        <v>6.710890757533393</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970544</v>
       </c>
       <c r="R19" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630801</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9669856871761469</v>
+        <v>0.9669856871761513</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2370804762508029</v>
+        <v>0.2370804762508039</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286863</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817408</v>
       </c>
       <c r="H20" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801379</v>
       </c>
       <c r="I20" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365818</v>
       </c>
       <c r="J20" t="n">
-        <v>10.49876149550037</v>
+        <v>10.49876149550041</v>
       </c>
       <c r="K20" t="n">
-        <v>15.73492195859444</v>
+        <v>15.7349219585945</v>
       </c>
       <c r="L20" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661283</v>
       </c>
       <c r="M20" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874724</v>
       </c>
       <c r="N20" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042374</v>
       </c>
       <c r="O20" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616218</v>
       </c>
       <c r="P20" t="n">
-        <v>17.78800897220663</v>
+        <v>17.7880089722067</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831685</v>
       </c>
       <c r="R20" t="n">
-        <v>7.770280290333878</v>
+        <v>7.770280290333909</v>
       </c>
       <c r="S20" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180172</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573208</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539265</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493338</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065934</v>
       </c>
       <c r="I21" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301434</v>
       </c>
       <c r="J21" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003465</v>
       </c>
       <c r="K21" t="n">
-        <v>10.68735659457396</v>
+        <v>10.687356594574</v>
       </c>
       <c r="L21" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312643</v>
       </c>
       <c r="M21" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565526</v>
       </c>
       <c r="N21" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929309</v>
       </c>
       <c r="O21" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012483</v>
       </c>
       <c r="P21" t="n">
-        <v>12.63834998545674</v>
+        <v>12.6383499854568</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747635</v>
       </c>
       <c r="R21" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956829</v>
       </c>
       <c r="S21" t="n">
-        <v>1.229349354320577</v>
+        <v>1.229349354320582</v>
       </c>
       <c r="T21" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035691</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219303</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359239</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197582</v>
       </c>
       <c r="I22" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569488</v>
       </c>
       <c r="J22" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132982</v>
       </c>
       <c r="K22" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247841005</v>
       </c>
       <c r="L22" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437547</v>
       </c>
       <c r="M22" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133213</v>
       </c>
       <c r="N22" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595285</v>
       </c>
       <c r="O22" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499468</v>
       </c>
       <c r="P22" t="n">
-        <v>6.710890757533362</v>
+        <v>6.71089075753339</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970541</v>
       </c>
       <c r="R22" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630799</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761507</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508038</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286861</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H23" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I23" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J23" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K23" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L23" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M23" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N23" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O23" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P23" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R23" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S23" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U23" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I24" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J24" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K24" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L24" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M24" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N24" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O24" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P24" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R24" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S24" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T24" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I25" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J25" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K25" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L25" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M25" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N25" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O25" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P25" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R25" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H26" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I26" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J26" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K26" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L26" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M26" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N26" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O26" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P26" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R26" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S26" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I27" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J27" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K27" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L27" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M27" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N27" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O27" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P27" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R27" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S27" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T27" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I28" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J28" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K28" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L28" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M28" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N28" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O28" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P28" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R28" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H29" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I29" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J29" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K29" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L29" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M29" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N29" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O29" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P29" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R29" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S29" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U29" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I30" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J30" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K30" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L30" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N30" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O30" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P30" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R30" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S30" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T30" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I31" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J31" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K31" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L31" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M31" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N31" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O31" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P31" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R31" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H32" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I32" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J32" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K32" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L32" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M32" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N32" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O32" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P32" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R32" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S32" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I33" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J33" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K33" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L33" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M33" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N33" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O33" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P33" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R33" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S33" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T33" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I34" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J34" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K34" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L34" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M34" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N34" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O34" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P34" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R34" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H35" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I35" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J35" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K35" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L35" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M35" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N35" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O35" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P35" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R35" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S35" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I36" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J36" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K36" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L36" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M36" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N36" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O36" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P36" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R36" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S36" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T36" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I37" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J37" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K37" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L37" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M37" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N37" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O37" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P37" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R37" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H38" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I38" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J38" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K38" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L38" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M38" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N38" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O38" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P38" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q38" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R38" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S38" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U38" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I39" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J39" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K39" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L39" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M39" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N39" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O39" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P39" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R39" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S39" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T39" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I40" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J40" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K40" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L40" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M40" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N40" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O40" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P40" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R40" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H41" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I41" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J41" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K41" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L41" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M41" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N41" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O41" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P41" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q41" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R41" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S41" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U41" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I42" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J42" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K42" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L42" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M42" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N42" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O42" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P42" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R42" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S42" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T42" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I43" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J43" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K43" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L43" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M43" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N43" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O43" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P43" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R43" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1236985698817403</v>
+        <v>0.1236985698817407</v>
       </c>
       <c r="H44" t="n">
-        <v>1.266827978801374</v>
+        <v>1.266827978801377</v>
       </c>
       <c r="I44" t="n">
-        <v>4.768889115365799</v>
+        <v>4.768889115365813</v>
       </c>
       <c r="J44" t="n">
-        <v>10.49876149550037</v>
+        <v>10.4987614955004</v>
       </c>
       <c r="K44" t="n">
-        <v>15.73492195859444</v>
+        <v>15.73492195859448</v>
       </c>
       <c r="L44" t="n">
-        <v>19.52056206661275</v>
+        <v>19.52056206661281</v>
       </c>
       <c r="M44" t="n">
-        <v>21.72038650874715</v>
+        <v>21.72038650874721</v>
       </c>
       <c r="N44" t="n">
-        <v>22.07184507042365</v>
+        <v>22.07184507042371</v>
       </c>
       <c r="O44" t="n">
-        <v>20.84181741616209</v>
+        <v>20.84181741616215</v>
       </c>
       <c r="P44" t="n">
-        <v>17.78800897220663</v>
+        <v>17.78800897220668</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.3580539383168</v>
+        <v>13.35805393831683</v>
       </c>
       <c r="R44" t="n">
-        <v>7.770280290333878</v>
+        <v>7.7702802903339</v>
       </c>
       <c r="S44" t="n">
-        <v>2.818781161180161</v>
+        <v>2.818781161180169</v>
       </c>
       <c r="T44" t="n">
-        <v>0.5414904896573186</v>
+        <v>0.5414904896573201</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009895885590539225</v>
+        <v>0.009895885590539253</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0661845697249331</v>
+        <v>0.06618456972493328</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6392036076065909</v>
+        <v>0.6392036076065927</v>
       </c>
       <c r="I45" t="n">
-        <v>2.278723124301425</v>
+        <v>2.278723124301431</v>
       </c>
       <c r="J45" t="n">
-        <v>6.252990423003439</v>
+        <v>6.252990423003457</v>
       </c>
       <c r="K45" t="n">
-        <v>10.68735659457396</v>
+        <v>10.68735659457399</v>
       </c>
       <c r="L45" t="n">
-        <v>14.37046984312638</v>
+        <v>14.37046984312641</v>
       </c>
       <c r="M45" t="n">
-        <v>16.7696604956552</v>
+        <v>16.76966049565524</v>
       </c>
       <c r="N45" t="n">
-        <v>17.21350350929302</v>
+        <v>17.21350350929307</v>
       </c>
       <c r="O45" t="n">
-        <v>15.74699278012476</v>
+        <v>15.74699278012481</v>
       </c>
       <c r="P45" t="n">
-        <v>12.63834998545674</v>
+        <v>12.63834998545678</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.448402268747602</v>
+        <v>8.448402268747625</v>
       </c>
       <c r="R45" t="n">
-        <v>4.109248986956813</v>
+        <v>4.109248986956825</v>
       </c>
       <c r="S45" t="n">
-        <v>1.229349354320577</v>
+        <v>1.22934935432058</v>
       </c>
       <c r="T45" t="n">
-        <v>0.266770261303568</v>
+        <v>0.2667702613035687</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004354248008219284</v>
+        <v>0.004354248008219297</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05548691997359217</v>
+        <v>0.05548691997359232</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4933291612197562</v>
+        <v>0.4933291612197576</v>
       </c>
       <c r="I46" t="n">
-        <v>1.668643011569481</v>
+        <v>1.668643011569486</v>
       </c>
       <c r="J46" t="n">
-        <v>3.922925242132966</v>
+        <v>3.922925242132977</v>
       </c>
       <c r="K46" t="n">
-        <v>6.446571247840979</v>
+        <v>6.446571247840997</v>
       </c>
       <c r="L46" t="n">
-        <v>8.249391720437513</v>
+        <v>8.249391720437536</v>
       </c>
       <c r="M46" t="n">
-        <v>8.697826919133178</v>
+        <v>8.697826919133202</v>
       </c>
       <c r="N46" t="n">
-        <v>8.491012035595251</v>
+        <v>8.491012035595274</v>
       </c>
       <c r="O46" t="n">
-        <v>7.842823924994648</v>
+        <v>7.84282392499467</v>
       </c>
       <c r="P46" t="n">
-        <v>6.710890757533362</v>
+        <v>6.710890757533381</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.646272907970523</v>
+        <v>4.646272907970536</v>
       </c>
       <c r="R46" t="n">
-        <v>2.494893692630789</v>
+        <v>2.494893692630796</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9669856871761467</v>
+        <v>0.9669856871761495</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2370804762508028</v>
+        <v>0.2370804762508035</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003026559271286849</v>
+        <v>0.003026559271286857</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>449.8831702543779</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>247.8874524576771</v>
+        <v>467.8947524111494</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>77.48990379225602</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35178,22 +35178,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>503.7020498768026</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.70171839237574</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35412,25 +35412,25 @@
         <v>156.6096432215894</v>
       </c>
       <c r="K11" t="n">
-        <v>378.3433623903741</v>
+        <v>378.3433623903742</v>
       </c>
       <c r="L11" t="n">
-        <v>517.8238870348238</v>
+        <v>517.8238870348239</v>
       </c>
       <c r="M11" t="n">
-        <v>573.2364471598387</v>
+        <v>573.2364471598388</v>
       </c>
       <c r="N11" t="n">
-        <v>555.2145558153348</v>
+        <v>555.214555815335</v>
       </c>
       <c r="O11" t="n">
-        <v>465.3262627619484</v>
+        <v>465.3262627619486</v>
       </c>
       <c r="P11" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787945</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>120.5105482207079</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>465.0021573458506</v>
       </c>
       <c r="M12" t="n">
-        <v>327.8363247962836</v>
+        <v>650.8824378963434</v>
       </c>
       <c r="N12" t="n">
-        <v>679.6154946310699</v>
+        <v>679.61549463107</v>
       </c>
       <c r="O12" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P12" t="n">
-        <v>422.356904244444</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>245.1808179807582</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.33004366185629</v>
+        <v>65.33004366185632</v>
       </c>
       <c r="K13" t="n">
-        <v>180.5898348265333</v>
+        <v>180.5898348265334</v>
       </c>
       <c r="L13" t="n">
-        <v>265.5164924343399</v>
+        <v>265.51649243434</v>
       </c>
       <c r="M13" t="n">
         <v>288.3527442638076</v>
       </c>
       <c r="N13" t="n">
-        <v>285.0126523024364</v>
+        <v>285.0126523024365</v>
       </c>
       <c r="O13" t="n">
-        <v>263.6726793539559</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P13" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.58464281000541</v>
+        <v>99.58464281000543</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>156.6096432215894</v>
       </c>
       <c r="K14" t="n">
-        <v>378.3433623903741</v>
+        <v>378.3433623903742</v>
       </c>
       <c r="L14" t="n">
-        <v>517.8238870348238</v>
+        <v>517.8238870348239</v>
       </c>
       <c r="M14" t="n">
-        <v>573.2364471598387</v>
+        <v>573.2364471598388</v>
       </c>
       <c r="N14" t="n">
-        <v>555.2145558153348</v>
+        <v>555.214555815335</v>
       </c>
       <c r="O14" t="n">
-        <v>465.3262627619484</v>
+        <v>465.3262627619486</v>
       </c>
       <c r="P14" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787945</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.30884340473588</v>
       </c>
       <c r="K15" t="n">
-        <v>333.6561910008633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>502.8210616596044</v>
+        <v>502.8210616596045</v>
       </c>
       <c r="M15" t="n">
-        <v>650.8824378963433</v>
+        <v>650.8824378963434</v>
       </c>
       <c r="N15" t="n">
-        <v>308.1403993164529</v>
+        <v>679.61549463107</v>
       </c>
       <c r="O15" t="n">
-        <v>537.4846519629339</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.33004366185629</v>
+        <v>65.33004366185632</v>
       </c>
       <c r="K16" t="n">
-        <v>180.5898348265333</v>
+        <v>180.5898348265334</v>
       </c>
       <c r="L16" t="n">
-        <v>265.5164924343399</v>
+        <v>265.51649243434</v>
       </c>
       <c r="M16" t="n">
         <v>288.3527442638076</v>
       </c>
       <c r="N16" t="n">
-        <v>285.0126523024364</v>
+        <v>285.0126523024365</v>
       </c>
       <c r="O16" t="n">
-        <v>263.6726793539559</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P16" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.58464281000541</v>
+        <v>99.58464281000543</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>555.2145558153348</v>
       </c>
       <c r="O17" t="n">
-        <v>465.3262627619484</v>
+        <v>465.3262627619485</v>
       </c>
       <c r="P17" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K18" t="n">
         <v>333.6561910008633</v>
       </c>
       <c r="L18" t="n">
-        <v>502.8210616596044</v>
+        <v>502.8210616596045</v>
       </c>
       <c r="M18" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>416.1553847476441</v>
       </c>
       <c r="O18" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P18" t="n">
-        <v>62.95958133569462</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q18" t="n">
-        <v>245.1808179807582</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.33004366185629</v>
+        <v>65.33004366185631</v>
       </c>
       <c r="K19" t="n">
-        <v>180.5898348265333</v>
+        <v>180.5898348265334</v>
       </c>
       <c r="L19" t="n">
         <v>265.5164924343399</v>
@@ -36053,16 +36053,16 @@
         <v>288.3527442638076</v>
       </c>
       <c r="N19" t="n">
-        <v>285.0126523024364</v>
+        <v>285.0126523024365</v>
       </c>
       <c r="O19" t="n">
         <v>263.6726793539559</v>
       </c>
       <c r="P19" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.58464281000541</v>
+        <v>99.58464281000542</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N20" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O20" t="n">
-        <v>465.3262627619484</v>
+        <v>465.3262627619485</v>
       </c>
       <c r="P20" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L21" t="n">
-        <v>465.0021573458507</v>
+        <v>502.8210616596045</v>
       </c>
       <c r="M21" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>679.6154946310699</v>
+        <v>170.9745667668857</v>
       </c>
       <c r="O21" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.33004366185629</v>
+        <v>65.33004366185631</v>
       </c>
       <c r="K22" t="n">
-        <v>180.5898348265333</v>
+        <v>180.5898348265334</v>
       </c>
       <c r="L22" t="n">
-        <v>265.5164924343399</v>
+        <v>265.51649243434</v>
       </c>
       <c r="M22" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N22" t="n">
         <v>285.0126523024364</v>
@@ -36296,10 +36296,10 @@
         <v>263.6726793539559</v>
       </c>
       <c r="P22" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.58464281000541</v>
+        <v>99.58464281000542</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,16 +36369,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N23" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O23" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P23" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L24" t="n">
         <v>502.8210616596044</v>
       </c>
       <c r="M24" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O24" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P24" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q24" t="n">
-        <v>219.439686072872</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.33004366185629</v>
+        <v>65.33004366185631</v>
       </c>
       <c r="K25" t="n">
-        <v>180.589834826534</v>
+        <v>180.5898348265334</v>
       </c>
       <c r="L25" t="n">
         <v>265.5164924343399</v>
       </c>
       <c r="M25" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N25" t="n">
-        <v>285.0126523024364</v>
+        <v>285.0126523024369</v>
       </c>
       <c r="O25" t="n">
         <v>263.6726793539559</v>
@@ -36536,7 +36536,7 @@
         <v>219.2795327873739</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.58464281000541</v>
+        <v>99.58464281000542</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N26" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O26" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P26" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K27" t="n">
         <v>333.6561910008633</v>
@@ -36682,16 +36682,16 @@
         <v>502.8210616596044</v>
       </c>
       <c r="M27" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O27" t="n">
-        <v>178.0873290541844</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P27" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q27" t="n">
         <v>245.1808179807582</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.33004366185632</v>
+        <v>65.33004366185634</v>
       </c>
       <c r="K28" t="n">
         <v>180.5898348265334</v>
@@ -36761,19 +36761,19 @@
         <v>265.51649243434</v>
       </c>
       <c r="M28" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N28" t="n">
         <v>285.0126523024365</v>
       </c>
       <c r="O28" t="n">
-        <v>263.6726793539559</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P28" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.58464281000543</v>
+        <v>99.58464281000545</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,16 +36843,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N29" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O29" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P29" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L30" t="n">
-        <v>42.64525310140662</v>
+        <v>502.8210616596044</v>
       </c>
       <c r="M30" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>679.6154946310699</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O30" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P30" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.33004366185632</v>
+        <v>65.33004366185634</v>
       </c>
       <c r="K31" t="n">
         <v>180.5898348265334</v>
@@ -36998,19 +36998,19 @@
         <v>265.51649243434</v>
       </c>
       <c r="M31" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N31" t="n">
         <v>285.0126523024365</v>
       </c>
       <c r="O31" t="n">
-        <v>263.6726793539559</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P31" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.58464281000543</v>
+        <v>99.58464281000545</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,16 +37080,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N32" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O32" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P32" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L33" t="n">
         <v>502.8210616596044</v>
       </c>
       <c r="M33" t="n">
-        <v>613.0635335825896</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>679.6154946310699</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O33" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.33004366185632</v>
+        <v>65.33004366185634</v>
       </c>
       <c r="K34" t="n">
         <v>180.5898348265334</v>
@@ -37235,7 +37235,7 @@
         <v>265.51649243434</v>
       </c>
       <c r="M34" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N34" t="n">
         <v>285.0126523024365</v>
@@ -37244,10 +37244,10 @@
         <v>263.6726793539559</v>
       </c>
       <c r="P34" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.58464281000543</v>
+        <v>99.58464281000545</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N35" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O35" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P35" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K36" t="n">
         <v>333.6561910008633</v>
@@ -37393,19 +37393,19 @@
         <v>502.8210616596044</v>
       </c>
       <c r="M36" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>679.6154946310699</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O36" t="n">
-        <v>166.009556648318</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.33004366185632</v>
+        <v>65.33004366185634</v>
       </c>
       <c r="K37" t="n">
         <v>180.5898348265334</v>
@@ -37472,19 +37472,19 @@
         <v>265.51649243434</v>
       </c>
       <c r="M37" t="n">
-        <v>288.3527442638075</v>
+        <v>288.3527442638076</v>
       </c>
       <c r="N37" t="n">
         <v>285.0126523024365</v>
       </c>
       <c r="O37" t="n">
-        <v>263.6726793539558</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P37" t="n">
-        <v>219.2795327873739</v>
+        <v>219.279532787374</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.58464281000543</v>
+        <v>99.58464281000545</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,16 +37554,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N38" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O38" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P38" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>120.5105482207079</v>
       </c>
       <c r="K39" t="n">
-        <v>98.92913785216416</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L39" t="n">
         <v>502.8210616596044</v>
       </c>
       <c r="M39" t="n">
-        <v>650.8824378963433</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O39" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P39" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.33004366185632</v>
+        <v>65.33004366185634</v>
       </c>
       <c r="K40" t="n">
         <v>180.5898348265334</v>
       </c>
       <c r="L40" t="n">
-        <v>265.5164924343399</v>
+        <v>265.51649243434</v>
       </c>
       <c r="M40" t="n">
         <v>288.3527442638076</v>
       </c>
       <c r="N40" t="n">
-        <v>285.0126523024364</v>
+        <v>285.0126523024363</v>
       </c>
       <c r="O40" t="n">
-        <v>263.6726793539559</v>
+        <v>263.672679353956</v>
       </c>
       <c r="P40" t="n">
         <v>219.279532787374</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.58464281000543</v>
+        <v>99.58464281000545</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,16 +37791,16 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N41" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O41" t="n">
         <v>465.3262627619484</v>
       </c>
       <c r="P41" t="n">
-        <v>369.4925464787943</v>
+        <v>369.4925464787944</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.0707409493762</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>120.5105482207079</v>
       </c>
       <c r="K42" t="n">
         <v>333.6561910008633</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>291.4851149875936</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O42" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P42" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q42" t="n">
         <v>245.1808179807582</v>
@@ -37940,16 +37940,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>89.10822893465095</v>
+        <v>89.10822893465097</v>
       </c>
       <c r="L43" t="n">
         <v>174.0348865424575</v>
       </c>
       <c r="M43" t="n">
-        <v>196.8711383719251</v>
+        <v>196.8711383719252</v>
       </c>
       <c r="N43" t="n">
-        <v>193.531046410554</v>
+        <v>193.5310464105541</v>
       </c>
       <c r="O43" t="n">
         <v>172.1910734620735</v>
@@ -37958,7 +37958,7 @@
         <v>127.7979268954915</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.103036918123006</v>
+        <v>8.103036918123019</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>573.2364471598387</v>
       </c>
       <c r="N44" t="n">
-        <v>555.2145558153347</v>
+        <v>555.2145558153348</v>
       </c>
       <c r="O44" t="n">
         <v>465.3262627619484</v>
@@ -38037,7 +38037,7 @@
         <v>369.4925464787943</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.0707409493759</v>
+        <v>200.070740949376</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>120.5105482207079</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.6561910008633</v>
       </c>
       <c r="L45" t="n">
         <v>502.8210616596044</v>
       </c>
       <c r="M45" t="n">
-        <v>70.19608111743757</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>679.6154946310699</v>
+        <v>170.9745667668859</v>
       </c>
       <c r="O45" t="n">
-        <v>537.4846519629339</v>
+        <v>537.484651962934</v>
       </c>
       <c r="P45" t="n">
-        <v>422.356904244444</v>
+        <v>422.3569042444441</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>245.1808179807582</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,16 +38177,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>89.10822893465095</v>
+        <v>89.10822893465097</v>
       </c>
       <c r="L46" t="n">
         <v>174.0348865424575</v>
       </c>
       <c r="M46" t="n">
-        <v>196.8711383719251</v>
+        <v>196.8711383719252</v>
       </c>
       <c r="N46" t="n">
-        <v>193.531046410554</v>
+        <v>193.5310464105541</v>
       </c>
       <c r="O46" t="n">
         <v>172.1910734620735</v>
@@ -38195,7 +38195,7 @@
         <v>127.7979268954915</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.103036918123006</v>
+        <v>8.103036918123019</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
